--- a/model/data/floor builder 20170429.xlsx
+++ b/model/data/floor builder 20170429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2404,385 +2404,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1068">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1024">
     <dxf>
       <fill>
         <patternFill>
@@ -2808,6 +2430,76 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12574,12 +12266,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1067" priority="2">
+    <cfRule type="expression" dxfId="1023" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1066" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14307,52 +13999,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 L19:P19 E19:J19">
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 L19:P19 E19:J19">
-    <cfRule type="cellIs" dxfId="66" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="expression" dxfId="65" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="cellIs" dxfId="64" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="cellIs" dxfId="62" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="cellIs" dxfId="60" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="59" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14365,7 +14057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -16070,22 +15762,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 F19:J19 L19:M19">
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 F19:J19 L19:M19">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18499,22 +18191,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20242,12 +19934,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1065" priority="2">
+    <cfRule type="expression" dxfId="1021" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1064" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21975,22 +21667,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1063" priority="4">
+    <cfRule type="expression" dxfId="1019" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1062" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18 A20:T20 S19:T19 K19">
-    <cfRule type="expression" dxfId="1061" priority="2">
+    <cfRule type="expression" dxfId="1017" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18 A20:T20 S19:T19 K19">
-    <cfRule type="cellIs" dxfId="1060" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23718,32 +23410,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="1015" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="expression" dxfId="39" priority="4">
+    <cfRule type="expression" dxfId="1013" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="1011" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25619,1312 +25311,1312 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D5:G5 O5:P6 D7:P7 D11 D13:P13 D15:G15 D17:O17 M5:O5 F11:N11 F9:N9 D9 M15:P15 P9 P11">
-    <cfRule type="expression" dxfId="1059" priority="314">
+    <cfRule type="expression" dxfId="1009" priority="314">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D5:G5 O5:P6 D7:P7 D11 D13:P13 D15:G15 D17:O17 M5:O5 F11:N11 F9:N9 D9 M15:P15 P9 P11">
-    <cfRule type="cellIs" dxfId="1058" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="313" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="expression" dxfId="1057" priority="312">
+    <cfRule type="expression" dxfId="1007" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="cellIs" dxfId="1056" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="expression" dxfId="1055" priority="302">
+    <cfRule type="expression" dxfId="1005" priority="302">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="cellIs" dxfId="1054" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="301" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="1053" priority="308">
+    <cfRule type="expression" dxfId="1003" priority="308">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="1052" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="307" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="expression" dxfId="1051" priority="306">
+    <cfRule type="expression" dxfId="1001" priority="306">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="cellIs" dxfId="1050" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="305" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1049" priority="304">
+    <cfRule type="expression" dxfId="999" priority="304">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1048" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="303" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="1047" priority="172">
+    <cfRule type="expression" dxfId="997" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="1046" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1045" priority="300">
+    <cfRule type="expression" dxfId="995" priority="300">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="1044" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="299" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="expression" dxfId="1043" priority="298">
+    <cfRule type="expression" dxfId="993" priority="298">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="cellIs" dxfId="1042" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="297" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 H10 J10 L10">
-    <cfRule type="expression" dxfId="1041" priority="294">
+    <cfRule type="expression" dxfId="991" priority="294">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 H10 J10 L10">
-    <cfRule type="cellIs" dxfId="1040" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="293" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="1039" priority="286">
+    <cfRule type="expression" dxfId="989" priority="286">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="1038" priority="285" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="285" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="1037" priority="284">
+    <cfRule type="expression" dxfId="987" priority="284">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="1036" priority="283" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="283" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="1035" priority="282">
+    <cfRule type="expression" dxfId="985" priority="282">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="1034" priority="281" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="281" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="1033" priority="278">
+    <cfRule type="expression" dxfId="983" priority="278">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="1032" priority="277" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="277" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1031" priority="276">
+    <cfRule type="expression" dxfId="981" priority="276">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="1030" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="275" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="1029" priority="272">
+    <cfRule type="expression" dxfId="979" priority="272">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="1028" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="271" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="1027" priority="270">
+    <cfRule type="expression" dxfId="977" priority="270">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="1026" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="269" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="1025" priority="268">
+    <cfRule type="expression" dxfId="975" priority="268">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="1024" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="267" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1023" priority="264">
+    <cfRule type="expression" dxfId="973" priority="264">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="1022" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="263" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1021" priority="262">
+    <cfRule type="expression" dxfId="971" priority="262">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="1020" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="261" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="1019" priority="260">
+    <cfRule type="expression" dxfId="969" priority="260">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="1018" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="259" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="1017" priority="258">
+    <cfRule type="expression" dxfId="967" priority="258">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="1016" priority="257" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="257" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1015" priority="256">
+    <cfRule type="expression" dxfId="965" priority="256">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="1014" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="255" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="1013" priority="254">
+    <cfRule type="expression" dxfId="963" priority="254">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="1012" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="253" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="1011" priority="250">
+    <cfRule type="expression" dxfId="961" priority="250">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="1010" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="249" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="1009" priority="246">
+    <cfRule type="expression" dxfId="959" priority="246">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="1008" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="245" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="1007" priority="244">
+    <cfRule type="expression" dxfId="957" priority="244">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="1006" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="243" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="1005" priority="242">
+    <cfRule type="expression" dxfId="955" priority="242">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="1004" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="241" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="1003" priority="240">
+    <cfRule type="expression" dxfId="953" priority="240">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="1002" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="239" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="1001" priority="238">
+    <cfRule type="expression" dxfId="951" priority="238">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="1000" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="237" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="999" priority="236">
+    <cfRule type="expression" dxfId="949" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="998" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="997" priority="234">
+    <cfRule type="expression" dxfId="947" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="996" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="995" priority="232">
+    <cfRule type="expression" dxfId="945" priority="232">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="994" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="231" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="993" priority="230">
+    <cfRule type="expression" dxfId="943" priority="230">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="992" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="229" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="991" priority="228">
+    <cfRule type="expression" dxfId="941" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="990" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="989" priority="216">
+    <cfRule type="expression" dxfId="939" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="988" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="987" priority="214">
+    <cfRule type="expression" dxfId="937" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="986" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="985" priority="212">
+    <cfRule type="expression" dxfId="935" priority="212">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="984" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="211" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="983" priority="210">
+    <cfRule type="expression" dxfId="933" priority="210">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="982" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="209" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="981" priority="208">
+    <cfRule type="expression" dxfId="931" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="980" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="979" priority="206">
+    <cfRule type="expression" dxfId="929" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="978" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="977" priority="204">
+    <cfRule type="expression" dxfId="927" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="976" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="975" priority="202">
+    <cfRule type="expression" dxfId="925" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="974" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="973" priority="198">
+    <cfRule type="expression" dxfId="923" priority="198">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="972" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="197" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="971" priority="196">
+    <cfRule type="expression" dxfId="921" priority="196">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="970" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="195" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="969" priority="194">
+    <cfRule type="expression" dxfId="919" priority="194">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="968" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="193" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="967" priority="192">
+    <cfRule type="expression" dxfId="917" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="966" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="965" priority="190">
+    <cfRule type="expression" dxfId="915" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="964" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="963" priority="186">
+    <cfRule type="expression" dxfId="913" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="962" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="961" priority="184">
+    <cfRule type="expression" dxfId="911" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="960" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="959" priority="182">
+    <cfRule type="expression" dxfId="909" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="958" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="957" priority="180">
+    <cfRule type="expression" dxfId="907" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="956" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="955" priority="178">
+    <cfRule type="expression" dxfId="905" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="954" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="953" priority="174">
+    <cfRule type="expression" dxfId="903" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="952" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="951" priority="170">
+    <cfRule type="expression" dxfId="901" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="950" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="949" priority="168">
+    <cfRule type="expression" dxfId="899" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="948" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="947" priority="166">
+    <cfRule type="expression" dxfId="897" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="946" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="945" priority="62">
+    <cfRule type="expression" dxfId="895" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="944" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="expression" dxfId="943" priority="164">
+    <cfRule type="expression" dxfId="893" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="cellIs" dxfId="942" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="941" priority="160">
+    <cfRule type="expression" dxfId="891" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="940" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="939" priority="158">
+    <cfRule type="expression" dxfId="889" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="938" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="937" priority="156">
+    <cfRule type="expression" dxfId="887" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="936" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="935" priority="154">
+    <cfRule type="expression" dxfId="885" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="934" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="933" priority="150">
+    <cfRule type="expression" dxfId="883" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="932" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="931" priority="148">
+    <cfRule type="expression" dxfId="881" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="930" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="929" priority="146">
+    <cfRule type="expression" dxfId="879" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="928" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="927" priority="144">
+    <cfRule type="expression" dxfId="877" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="926" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="925" priority="142">
+    <cfRule type="expression" dxfId="875" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="924" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="923" priority="140">
+    <cfRule type="expression" dxfId="873" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="922" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="921" priority="138">
+    <cfRule type="expression" dxfId="871" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="920" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="919" priority="136">
+    <cfRule type="expression" dxfId="869" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="918" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="917" priority="134">
+    <cfRule type="expression" dxfId="867" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="916" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="915" priority="132">
+    <cfRule type="expression" dxfId="865" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="914" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="913" priority="130">
+    <cfRule type="expression" dxfId="863" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="912" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="911" priority="128">
+    <cfRule type="expression" dxfId="861" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="910" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="909" priority="126">
+    <cfRule type="expression" dxfId="859" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="908" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="907" priority="124">
+    <cfRule type="expression" dxfId="857" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="906" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="905" priority="122">
+    <cfRule type="expression" dxfId="855" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="904" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="903" priority="120">
+    <cfRule type="expression" dxfId="853" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="902" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="901" priority="118">
+    <cfRule type="expression" dxfId="851" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="900" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="899" priority="116">
+    <cfRule type="expression" dxfId="849" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="898" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="897" priority="114">
+    <cfRule type="expression" dxfId="847" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="896" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="895" priority="112">
+    <cfRule type="expression" dxfId="845" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="894" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="893" priority="106">
+    <cfRule type="expression" dxfId="843" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="892" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="891" priority="104">
+    <cfRule type="expression" dxfId="841" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="890" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="889" priority="102">
+    <cfRule type="expression" dxfId="839" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="888" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="887" priority="100">
+    <cfRule type="expression" dxfId="837" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="886" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="885" priority="98">
+    <cfRule type="expression" dxfId="835" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="884" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="883" priority="96">
+    <cfRule type="expression" dxfId="833" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="882" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="881" priority="94">
+    <cfRule type="expression" dxfId="831" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="880" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="879" priority="92">
+    <cfRule type="expression" dxfId="829" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="878" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="877" priority="88">
+    <cfRule type="expression" dxfId="827" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="876" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="875" priority="86">
+    <cfRule type="expression" dxfId="825" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="874" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="873" priority="84">
+    <cfRule type="expression" dxfId="823" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="872" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="871" priority="82">
+    <cfRule type="expression" dxfId="821" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="870" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="869" priority="80">
+    <cfRule type="expression" dxfId="819" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="868" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="867" priority="72">
+    <cfRule type="expression" dxfId="817" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="866" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="865" priority="70">
+    <cfRule type="expression" dxfId="815" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="864" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="863" priority="68">
+    <cfRule type="expression" dxfId="813" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="862" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="861" priority="66">
+    <cfRule type="expression" dxfId="811" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="860" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="859" priority="64">
+    <cfRule type="expression" dxfId="809" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="858" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="857" priority="60">
+    <cfRule type="expression" dxfId="807" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="856" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="855" priority="58">
+    <cfRule type="expression" dxfId="805" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="854" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="expression" dxfId="853" priority="56">
+    <cfRule type="expression" dxfId="803" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="cellIs" dxfId="852" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S20">
-    <cfRule type="expression" dxfId="851" priority="54">
+    <cfRule type="expression" dxfId="801" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S20">
-    <cfRule type="cellIs" dxfId="850" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="849" priority="52">
+    <cfRule type="expression" dxfId="799" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="848" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="847" priority="50">
+    <cfRule type="expression" dxfId="797" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="846" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="845" priority="48">
+    <cfRule type="expression" dxfId="795" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="844" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="843" priority="46">
+    <cfRule type="expression" dxfId="793" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="842" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="841" priority="44">
+    <cfRule type="expression" dxfId="791" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="840" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:L4">
-    <cfRule type="expression" dxfId="839" priority="42">
+    <cfRule type="expression" dxfId="789" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:L4">
-    <cfRule type="cellIs" dxfId="838" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 E11">
-    <cfRule type="expression" dxfId="837" priority="40">
+    <cfRule type="expression" dxfId="787" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 E11">
-    <cfRule type="cellIs" dxfId="836" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="835" priority="38">
+    <cfRule type="expression" dxfId="785" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="834" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="833" priority="36">
+    <cfRule type="expression" dxfId="783" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="832" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="831" priority="34">
+    <cfRule type="expression" dxfId="781" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="830" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="829" priority="32">
+    <cfRule type="expression" dxfId="779" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="828" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="827" priority="30">
+    <cfRule type="expression" dxfId="777" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="826" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="825" priority="28">
+    <cfRule type="expression" dxfId="775" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="824" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="823" priority="26">
+    <cfRule type="expression" dxfId="773" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="822" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="821" priority="24">
+    <cfRule type="expression" dxfId="771" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="820" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="819" priority="22">
+    <cfRule type="expression" dxfId="769" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="818" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="817" priority="20">
+    <cfRule type="expression" dxfId="767" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="816" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="815" priority="18">
+    <cfRule type="expression" dxfId="765" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="814" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="813" priority="16">
+    <cfRule type="expression" dxfId="763" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="812" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="811" priority="14">
+    <cfRule type="expression" dxfId="761" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="810" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="809" priority="12">
+    <cfRule type="expression" dxfId="759" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="808" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 O11">
-    <cfRule type="expression" dxfId="807" priority="10">
+    <cfRule type="expression" dxfId="757" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 O11">
-    <cfRule type="cellIs" dxfId="806" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O12">
-    <cfRule type="expression" dxfId="805" priority="8">
+    <cfRule type="expression" dxfId="755" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O12">
-    <cfRule type="cellIs" dxfId="804" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="803" priority="6">
+    <cfRule type="expression" dxfId="753" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="802" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="801" priority="4">
+    <cfRule type="expression" dxfId="751" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="800" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="799" priority="2">
+    <cfRule type="expression" dxfId="749" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="798" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28800,1952 +28492,1952 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="expression" dxfId="797" priority="528">
+    <cfRule type="expression" dxfId="747" priority="528">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="cellIs" dxfId="796" priority="527" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="527" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="expression" dxfId="795" priority="526">
+    <cfRule type="expression" dxfId="745" priority="526">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="cellIs" dxfId="794" priority="525" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="525" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="expression" dxfId="793" priority="518">
+    <cfRule type="expression" dxfId="743" priority="518">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="cellIs" dxfId="792" priority="517" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="517" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="791" priority="524">
+    <cfRule type="expression" dxfId="741" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="790" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="expression" dxfId="789" priority="522">
+    <cfRule type="expression" dxfId="739" priority="522">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="cellIs" dxfId="788" priority="521" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="521" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="787" priority="520">
+    <cfRule type="expression" dxfId="737" priority="520">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="786" priority="519" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="519" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="785" priority="404">
+    <cfRule type="expression" dxfId="735" priority="404">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="784" priority="403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="403" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="783" priority="516">
+    <cfRule type="expression" dxfId="733" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="782" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="expression" dxfId="781" priority="514">
+    <cfRule type="expression" dxfId="731" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="cellIs" dxfId="780" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="expression" dxfId="779" priority="512">
+    <cfRule type="expression" dxfId="729" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="cellIs" dxfId="778" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="777" priority="510">
+    <cfRule type="expression" dxfId="727" priority="510">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="776" priority="509" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="509" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="775" priority="508">
+    <cfRule type="expression" dxfId="725" priority="508">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="774" priority="507" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="507" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="773" priority="506">
+    <cfRule type="expression" dxfId="723" priority="506">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="772" priority="505" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="505" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="771" priority="500">
+    <cfRule type="expression" dxfId="721" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="770" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="769" priority="498">
+    <cfRule type="expression" dxfId="719" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="768" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="767" priority="494">
+    <cfRule type="expression" dxfId="717" priority="494">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="766" priority="493" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="493" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="765" priority="490">
+    <cfRule type="expression" dxfId="715" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="764" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="763" priority="486">
+    <cfRule type="expression" dxfId="713" priority="486">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="762" priority="485" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="485" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="761" priority="470">
+    <cfRule type="expression" dxfId="711" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="760" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="759" priority="468">
+    <cfRule type="expression" dxfId="709" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="758" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="757" priority="466">
+    <cfRule type="expression" dxfId="707" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="756" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="755" priority="464">
+    <cfRule type="expression" dxfId="705" priority="464">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="754" priority="463" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="463" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="753" priority="462">
+    <cfRule type="expression" dxfId="703" priority="462">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="752" priority="461" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="461" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="751" priority="460">
+    <cfRule type="expression" dxfId="701" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="750" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="749" priority="446">
+    <cfRule type="expression" dxfId="699" priority="446">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="748" priority="445" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="445" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="747" priority="440">
+    <cfRule type="expression" dxfId="697" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="746" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="745" priority="434">
+    <cfRule type="expression" dxfId="695" priority="434">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="744" priority="433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="433" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="743" priority="428">
+    <cfRule type="expression" dxfId="693" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="742" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="741" priority="424">
+    <cfRule type="expression" dxfId="691" priority="424">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="740" priority="423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="423" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="739" priority="418">
+    <cfRule type="expression" dxfId="689" priority="418">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="738" priority="417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="417" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="737" priority="416">
+    <cfRule type="expression" dxfId="687" priority="416">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="736" priority="415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="415" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="735" priority="414">
+    <cfRule type="expression" dxfId="685" priority="414">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="734" priority="413" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="413" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="733" priority="412">
+    <cfRule type="expression" dxfId="683" priority="412">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="732" priority="411" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="411" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="731" priority="410">
+    <cfRule type="expression" dxfId="681" priority="410">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="730" priority="409" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="409" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="729" priority="408">
+    <cfRule type="expression" dxfId="679" priority="408">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="728" priority="407" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="407" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="727" priority="406">
+    <cfRule type="expression" dxfId="677" priority="406">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="726" priority="405" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="405" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="725" priority="402">
+    <cfRule type="expression" dxfId="675" priority="402">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="724" priority="401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="401" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="723" priority="400">
+    <cfRule type="expression" dxfId="673" priority="400">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="722" priority="399" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="399" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="721" priority="294">
+    <cfRule type="expression" dxfId="671" priority="294">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="720" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="293" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="expression" dxfId="719" priority="396">
+    <cfRule type="expression" dxfId="669" priority="396">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="cellIs" dxfId="718" priority="395" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="395" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="717" priority="392">
+    <cfRule type="expression" dxfId="667" priority="392">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="716" priority="391" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="391" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="715" priority="390">
+    <cfRule type="expression" dxfId="665" priority="390">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="714" priority="389" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="389" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="713" priority="388">
+    <cfRule type="expression" dxfId="663" priority="388">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="712" priority="387" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="387" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="711" priority="386">
+    <cfRule type="expression" dxfId="661" priority="386">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="710" priority="385" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="385" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="709" priority="384">
+    <cfRule type="expression" dxfId="659" priority="384">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="708" priority="383" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="383" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="707" priority="380">
+    <cfRule type="expression" dxfId="657" priority="380">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="706" priority="379" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="379" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="705" priority="374">
+    <cfRule type="expression" dxfId="655" priority="374">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="704" priority="373" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="373" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="703" priority="372">
+    <cfRule type="expression" dxfId="653" priority="372">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="702" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="371" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="701" priority="358">
+    <cfRule type="expression" dxfId="651" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="700" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="699" priority="356">
+    <cfRule type="expression" dxfId="649" priority="356">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="698" priority="355" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="355" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="697" priority="354">
+    <cfRule type="expression" dxfId="647" priority="354">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="696" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="353" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="695" priority="352">
+    <cfRule type="expression" dxfId="645" priority="352">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="694" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="351" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="693" priority="350">
+    <cfRule type="expression" dxfId="643" priority="350">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="692" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="349" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="691" priority="348">
+    <cfRule type="expression" dxfId="641" priority="348">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="690" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="347" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="689" priority="338">
+    <cfRule type="expression" dxfId="639" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="688" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="687" priority="336">
+    <cfRule type="expression" dxfId="637" priority="336">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="686" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="335" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="685" priority="334">
+    <cfRule type="expression" dxfId="635" priority="334">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="684" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="333" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="683" priority="326">
+    <cfRule type="expression" dxfId="633" priority="326">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="682" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="325" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="681" priority="324">
+    <cfRule type="expression" dxfId="631" priority="324">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="680" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="323" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="679" priority="318">
+    <cfRule type="expression" dxfId="629" priority="318">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="678" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="317" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="677" priority="316">
+    <cfRule type="expression" dxfId="627" priority="316">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="676" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="315" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="675" priority="314">
+    <cfRule type="expression" dxfId="625" priority="314">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="674" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="313" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="673" priority="312">
+    <cfRule type="expression" dxfId="623" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="672" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="671" priority="310">
+    <cfRule type="expression" dxfId="621" priority="310">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="670" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="309" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="669" priority="308">
+    <cfRule type="expression" dxfId="619" priority="308">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="668" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="307" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="667" priority="306">
+    <cfRule type="expression" dxfId="617" priority="306">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="666" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="305" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="665" priority="304">
+    <cfRule type="expression" dxfId="615" priority="304">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="664" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="303" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="663" priority="302">
+    <cfRule type="expression" dxfId="613" priority="302">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="662" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="301" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="661" priority="300">
+    <cfRule type="expression" dxfId="611" priority="300">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="660" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="299" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="659" priority="298">
+    <cfRule type="expression" dxfId="609" priority="298">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="658" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="297" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="657" priority="296">
+    <cfRule type="expression" dxfId="607" priority="296">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="656" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="295" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="655" priority="292">
+    <cfRule type="expression" dxfId="605" priority="292">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="654" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="291" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="expression" dxfId="653" priority="290">
+    <cfRule type="expression" dxfId="603" priority="290">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="cellIs" dxfId="652" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="289" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="651" priority="252">
+    <cfRule type="expression" dxfId="601" priority="252">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="650" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="251" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="649" priority="288">
+    <cfRule type="expression" dxfId="599" priority="288">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="648" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="287" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="647" priority="276">
+    <cfRule type="expression" dxfId="597" priority="276">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="646" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="275" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="645" priority="268">
+    <cfRule type="expression" dxfId="595" priority="268">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="644" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="267" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="643" priority="262">
+    <cfRule type="expression" dxfId="593" priority="262">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="642" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="261" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="641" priority="260">
+    <cfRule type="expression" dxfId="591" priority="260">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="640" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="259" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="639" priority="254">
+    <cfRule type="expression" dxfId="589" priority="254">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="638" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="253" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="637" priority="250">
+    <cfRule type="expression" dxfId="587" priority="250">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="636" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="249" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="635" priority="212">
+    <cfRule type="expression" dxfId="585" priority="212">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="634" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="211" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="633" priority="248">
+    <cfRule type="expression" dxfId="583" priority="248">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="632" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="247" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="631" priority="246">
+    <cfRule type="expression" dxfId="581" priority="246">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="630" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="245" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="629" priority="236">
+    <cfRule type="expression" dxfId="579" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="628" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="627" priority="234">
+    <cfRule type="expression" dxfId="577" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="626" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="625" priority="228">
+    <cfRule type="expression" dxfId="575" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="624" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="623" priority="226">
+    <cfRule type="expression" dxfId="573" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="622" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="621" priority="224">
+    <cfRule type="expression" dxfId="571" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="620" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="619" priority="222">
+    <cfRule type="expression" dxfId="569" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="618" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="617" priority="220">
+    <cfRule type="expression" dxfId="567" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="616" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="615" priority="218">
+    <cfRule type="expression" dxfId="565" priority="218">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="614" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="217" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="613" priority="216">
+    <cfRule type="expression" dxfId="563" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="612" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="611" priority="214">
+    <cfRule type="expression" dxfId="561" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="610" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="609" priority="210">
+    <cfRule type="expression" dxfId="559" priority="210">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="608" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="209" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="expression" dxfId="607" priority="208">
+    <cfRule type="expression" dxfId="557" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="cellIs" dxfId="606" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="605" priority="206">
+    <cfRule type="expression" dxfId="555" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="604" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="603" priority="204">
+    <cfRule type="expression" dxfId="553" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="602" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="601" priority="202">
+    <cfRule type="expression" dxfId="551" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="600" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="expression" dxfId="599" priority="192">
+    <cfRule type="expression" dxfId="549" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="cellIs" dxfId="598" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="597" priority="190">
+    <cfRule type="expression" dxfId="547" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="596" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="595" priority="188">
+    <cfRule type="expression" dxfId="545" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="594" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="593" priority="186">
+    <cfRule type="expression" dxfId="543" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="592" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="expression" dxfId="591" priority="184">
+    <cfRule type="expression" dxfId="541" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="cellIs" dxfId="590" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="589" priority="182">
+    <cfRule type="expression" dxfId="539" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="588" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="587" priority="180">
+    <cfRule type="expression" dxfId="537" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="586" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="585" priority="178">
+    <cfRule type="expression" dxfId="535" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="584" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="583" priority="176">
+    <cfRule type="expression" dxfId="533" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="582" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="581" priority="174">
+    <cfRule type="expression" dxfId="531" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="580" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="579" priority="172">
+    <cfRule type="expression" dxfId="529" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="578" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="577" priority="170">
+    <cfRule type="expression" dxfId="527" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="576" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="575" priority="168">
+    <cfRule type="expression" dxfId="525" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="574" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="573" priority="166">
+    <cfRule type="expression" dxfId="523" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="572" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="571" priority="164">
+    <cfRule type="expression" dxfId="521" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="570" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="569" priority="162">
+    <cfRule type="expression" dxfId="519" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="568" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="567" priority="160">
+    <cfRule type="expression" dxfId="517" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="566" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="565" priority="158">
+    <cfRule type="expression" dxfId="515" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="564" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="563" priority="156">
+    <cfRule type="expression" dxfId="513" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="562" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="561" priority="154">
+    <cfRule type="expression" dxfId="511" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="560" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="559" priority="152">
+    <cfRule type="expression" dxfId="509" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="558" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="557" priority="150">
+    <cfRule type="expression" dxfId="507" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="556" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="555" priority="148">
+    <cfRule type="expression" dxfId="505" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="554" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="553" priority="146">
+    <cfRule type="expression" dxfId="503" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="552" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="551" priority="144">
+    <cfRule type="expression" dxfId="501" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="550" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="549" priority="142">
+    <cfRule type="expression" dxfId="499" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="548" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="547" priority="140">
+    <cfRule type="expression" dxfId="497" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="546" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="545" priority="138">
+    <cfRule type="expression" dxfId="495" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="544" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="543" priority="136">
+    <cfRule type="expression" dxfId="493" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="542" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="541" priority="134">
+    <cfRule type="expression" dxfId="491" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="540" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="539" priority="132">
+    <cfRule type="expression" dxfId="489" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="538" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="expression" dxfId="537" priority="130">
+    <cfRule type="expression" dxfId="487" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="cellIs" dxfId="536" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="535" priority="128">
+    <cfRule type="expression" dxfId="485" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="534" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="533" priority="126">
+    <cfRule type="expression" dxfId="483" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="532" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="531" priority="124">
+    <cfRule type="expression" dxfId="481" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="530" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="529" priority="122">
+    <cfRule type="expression" dxfId="479" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="528" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="527" priority="120">
+    <cfRule type="expression" dxfId="477" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="526" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="525" priority="118">
+    <cfRule type="expression" dxfId="475" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="524" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="523" priority="116">
+    <cfRule type="expression" dxfId="473" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="522" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="expression" dxfId="521" priority="114">
+    <cfRule type="expression" dxfId="471" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="cellIs" dxfId="520" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="519" priority="112">
+    <cfRule type="expression" dxfId="469" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="518" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="517" priority="110">
+    <cfRule type="expression" dxfId="467" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="516" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="515" priority="108">
+    <cfRule type="expression" dxfId="465" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="514" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="513" priority="106">
+    <cfRule type="expression" dxfId="463" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="512" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="511" priority="104">
+    <cfRule type="expression" dxfId="461" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="510" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="509" priority="102">
+    <cfRule type="expression" dxfId="459" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="508" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="507" priority="100">
+    <cfRule type="expression" dxfId="457" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="506" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="505" priority="98">
+    <cfRule type="expression" dxfId="455" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="504" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="503" priority="96">
+    <cfRule type="expression" dxfId="453" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="502" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="501" priority="94">
+    <cfRule type="expression" dxfId="451" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="500" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="499" priority="92">
+    <cfRule type="expression" dxfId="449" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="498" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="497" priority="90">
+    <cfRule type="expression" dxfId="447" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="496" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="495" priority="88">
+    <cfRule type="expression" dxfId="445" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="494" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="493" priority="86">
+    <cfRule type="expression" dxfId="443" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="492" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="491" priority="84">
+    <cfRule type="expression" dxfId="441" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="490" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="489" priority="82">
+    <cfRule type="expression" dxfId="439" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="488" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="487" priority="80">
+    <cfRule type="expression" dxfId="437" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="486" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="485" priority="78">
+    <cfRule type="expression" dxfId="435" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="484" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="483" priority="76">
+    <cfRule type="expression" dxfId="433" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="482" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="481" priority="74">
+    <cfRule type="expression" dxfId="431" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="480" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="479" priority="72">
+    <cfRule type="expression" dxfId="429" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="478" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="expression" dxfId="477" priority="70">
+    <cfRule type="expression" dxfId="427" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="cellIs" dxfId="476" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="475" priority="68">
+    <cfRule type="expression" dxfId="425" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="474" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="473" priority="66">
+    <cfRule type="expression" dxfId="423" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="472" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="471" priority="64">
+    <cfRule type="expression" dxfId="421" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="470" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="expression" dxfId="469" priority="62">
+    <cfRule type="expression" dxfId="419" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="cellIs" dxfId="468" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="467" priority="60">
+    <cfRule type="expression" dxfId="417" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="466" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="465" priority="58">
+    <cfRule type="expression" dxfId="415" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="464" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="463" priority="56">
+    <cfRule type="expression" dxfId="413" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="462" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="expression" dxfId="461" priority="54">
+    <cfRule type="expression" dxfId="411" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="cellIs" dxfId="460" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="459" priority="52">
+    <cfRule type="expression" dxfId="409" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="458" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="457" priority="50">
+    <cfRule type="expression" dxfId="407" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="456" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="455" priority="48">
+    <cfRule type="expression" dxfId="405" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="454" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="453" priority="46">
+    <cfRule type="expression" dxfId="403" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="452" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="451" priority="44">
+    <cfRule type="expression" dxfId="401" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="450" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="449" priority="42">
+    <cfRule type="expression" dxfId="399" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="448" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="447" priority="40">
+    <cfRule type="expression" dxfId="397" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="446" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="445" priority="38">
+    <cfRule type="expression" dxfId="395" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="444" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="443" priority="36">
+    <cfRule type="expression" dxfId="393" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="442" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="441" priority="34">
+    <cfRule type="expression" dxfId="391" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="440" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="439" priority="32">
+    <cfRule type="expression" dxfId="389" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="438" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="437" priority="30">
+    <cfRule type="expression" dxfId="387" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="436" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="435" priority="28">
+    <cfRule type="expression" dxfId="385" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="434" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="433" priority="26">
+    <cfRule type="expression" dxfId="383" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="432" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="431" priority="24">
+    <cfRule type="expression" dxfId="381" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="430" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="429" priority="22">
+    <cfRule type="expression" dxfId="379" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="428" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="427" priority="20">
+    <cfRule type="expression" dxfId="377" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="426" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="425" priority="18">
+    <cfRule type="expression" dxfId="375" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="424" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="423" priority="16">
+    <cfRule type="expression" dxfId="373" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="422" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="421" priority="14">
+    <cfRule type="expression" dxfId="371" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="420" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="419" priority="12">
+    <cfRule type="expression" dxfId="369" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="418" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="417" priority="10">
+    <cfRule type="expression" dxfId="367" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="416" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="415" priority="8">
+    <cfRule type="expression" dxfId="365" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="414" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="413" priority="6">
+    <cfRule type="expression" dxfId="363" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="412" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="411" priority="4">
+    <cfRule type="expression" dxfId="361" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="410" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="409" priority="2">
+    <cfRule type="expression" dxfId="359" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="408" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32621,1622 +32313,1622 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="expression" dxfId="407" priority="626">
+    <cfRule type="expression" dxfId="357" priority="626">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="cellIs" dxfId="406" priority="625" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="625" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="expression" dxfId="405" priority="624">
+    <cfRule type="expression" dxfId="355" priority="624">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="cellIs" dxfId="404" priority="623" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="623" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="expression" dxfId="403" priority="616">
+    <cfRule type="expression" dxfId="353" priority="616">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="cellIs" dxfId="402" priority="615" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="615" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="401" priority="622">
+    <cfRule type="expression" dxfId="351" priority="622">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="400" priority="621" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="621" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="expression" dxfId="399" priority="620">
+    <cfRule type="expression" dxfId="349" priority="620">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="cellIs" dxfId="398" priority="619" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="619" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="expression" dxfId="397" priority="618">
+    <cfRule type="expression" dxfId="347" priority="618">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="cellIs" dxfId="396" priority="617" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="617" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="395" priority="556">
+    <cfRule type="expression" dxfId="345" priority="556">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="394" priority="555" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="555" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="expression" dxfId="393" priority="612">
+    <cfRule type="expression" dxfId="343" priority="612">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="cellIs" dxfId="392" priority="611" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="611" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="391" priority="608">
+    <cfRule type="expression" dxfId="341" priority="608">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="390" priority="607" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="607" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="expression" dxfId="389" priority="606">
+    <cfRule type="expression" dxfId="339" priority="606">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="cellIs" dxfId="388" priority="605" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="605" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="387" priority="604">
+    <cfRule type="expression" dxfId="337" priority="604">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="386" priority="603" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="603" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="385" priority="596">
+    <cfRule type="expression" dxfId="335" priority="596">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="384" priority="595" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="595" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="383" priority="594">
+    <cfRule type="expression" dxfId="333" priority="594">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="382" priority="593" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="593" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="381" priority="584">
+    <cfRule type="expression" dxfId="331" priority="584">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="380" priority="583" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="583" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="379" priority="580">
+    <cfRule type="expression" dxfId="329" priority="580">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="378" priority="579" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="579" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="expression" dxfId="377" priority="578">
+    <cfRule type="expression" dxfId="327" priority="578">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="cellIs" dxfId="376" priority="577" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="577" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="375" priority="576">
+    <cfRule type="expression" dxfId="325" priority="576">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="374" priority="575" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="575" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="373" priority="560">
+    <cfRule type="expression" dxfId="323" priority="560">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="372" priority="559" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="559" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="371" priority="558">
+    <cfRule type="expression" dxfId="321" priority="558">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="370" priority="557" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="557" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="369" priority="538">
+    <cfRule type="expression" dxfId="319" priority="538">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="368" priority="537" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="537" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="367" priority="536">
+    <cfRule type="expression" dxfId="317" priority="536">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="366" priority="535" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="535" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="365" priority="534">
+    <cfRule type="expression" dxfId="315" priority="534">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="364" priority="533" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="533" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="363" priority="524">
+    <cfRule type="expression" dxfId="313" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="362" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="361" priority="516">
+    <cfRule type="expression" dxfId="311" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="360" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="359" priority="514">
+    <cfRule type="expression" dxfId="309" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="358" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="expression" dxfId="357" priority="512">
+    <cfRule type="expression" dxfId="307" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="cellIs" dxfId="356" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="355" priority="502">
+    <cfRule type="expression" dxfId="305" priority="502">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="354" priority="501" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="501" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="353" priority="500">
+    <cfRule type="expression" dxfId="303" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="352" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="351" priority="498">
+    <cfRule type="expression" dxfId="301" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="350" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="349" priority="490">
+    <cfRule type="expression" dxfId="299" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="348" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="347" priority="488">
+    <cfRule type="expression" dxfId="297" priority="488">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="346" priority="487" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="487" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="expression" dxfId="345" priority="482">
+    <cfRule type="expression" dxfId="295" priority="482">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="cellIs" dxfId="344" priority="481" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="481" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="343" priority="468">
+    <cfRule type="expression" dxfId="293" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="342" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="341" priority="470">
+    <cfRule type="expression" dxfId="291" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="340" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="339" priority="466">
+    <cfRule type="expression" dxfId="289" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="338" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="337" priority="440">
+    <cfRule type="expression" dxfId="287" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="336" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="335" priority="460">
+    <cfRule type="expression" dxfId="285" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="334" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="333" priority="444">
+    <cfRule type="expression" dxfId="283" priority="444">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="332" priority="443" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="443" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="331" priority="442">
+    <cfRule type="expression" dxfId="281" priority="442">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="330" priority="441" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="441" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="329" priority="438">
+    <cfRule type="expression" dxfId="279" priority="438">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="328" priority="437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="437" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="expression" dxfId="327" priority="436">
+    <cfRule type="expression" dxfId="277" priority="436">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="cellIs" dxfId="326" priority="435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="435" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="325" priority="432">
+    <cfRule type="expression" dxfId="275" priority="432">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="324" priority="431" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="431" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="323" priority="430">
+    <cfRule type="expression" dxfId="273" priority="430">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="322" priority="429" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="429" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="321" priority="428">
+    <cfRule type="expression" dxfId="271" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="320" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="319" priority="420">
+    <cfRule type="expression" dxfId="269" priority="420">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="318" priority="419" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="419" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="317" priority="378">
+    <cfRule type="expression" dxfId="267" priority="378">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="316" priority="377" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="377" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="315" priority="358">
+    <cfRule type="expression" dxfId="265" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="314" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="313" priority="340">
+    <cfRule type="expression" dxfId="263" priority="340">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="312" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="339" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="311" priority="338">
+    <cfRule type="expression" dxfId="261" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="310" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="309" priority="330">
+    <cfRule type="expression" dxfId="259" priority="330">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="308" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="329" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="expression" dxfId="307" priority="236">
+    <cfRule type="expression" dxfId="257" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="306" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="305" priority="234">
+    <cfRule type="expression" dxfId="255" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="304" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="303" priority="228">
+    <cfRule type="expression" dxfId="253" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="302" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="301" priority="226">
+    <cfRule type="expression" dxfId="251" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="300" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="299" priority="224">
+    <cfRule type="expression" dxfId="249" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="298" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="297" priority="222">
+    <cfRule type="expression" dxfId="247" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="296" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="295" priority="220">
+    <cfRule type="expression" dxfId="245" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="294" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="293" priority="216">
+    <cfRule type="expression" dxfId="243" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="292" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="expression" dxfId="291" priority="214">
+    <cfRule type="expression" dxfId="241" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="cellIs" dxfId="290" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="expression" dxfId="289" priority="208">
+    <cfRule type="expression" dxfId="239" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="cellIs" dxfId="288" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="expression" dxfId="287" priority="206">
+    <cfRule type="expression" dxfId="237" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="cellIs" dxfId="286" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="expression" dxfId="285" priority="204">
+    <cfRule type="expression" dxfId="235" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="cellIs" dxfId="284" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="expression" dxfId="283" priority="202">
+    <cfRule type="expression" dxfId="233" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="cellIs" dxfId="282" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="281" priority="200">
+    <cfRule type="expression" dxfId="231" priority="200">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="280" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="199" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="279" priority="198">
+    <cfRule type="expression" dxfId="229" priority="198">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="278" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="197" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="expression" dxfId="277" priority="196">
+    <cfRule type="expression" dxfId="227" priority="196">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="276" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="195" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="275" priority="194">
+    <cfRule type="expression" dxfId="225" priority="194">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="cellIs" dxfId="274" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="193" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="273" priority="192">
+    <cfRule type="expression" dxfId="223" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="272" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="271" priority="190">
+    <cfRule type="expression" dxfId="221" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="270" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="expression" dxfId="269" priority="188">
+    <cfRule type="expression" dxfId="219" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="268" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="267" priority="186">
+    <cfRule type="expression" dxfId="217" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="266" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="265" priority="184">
+    <cfRule type="expression" dxfId="215" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="264" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="263" priority="182">
+    <cfRule type="expression" dxfId="213" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="262" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="expression" dxfId="261" priority="180">
+    <cfRule type="expression" dxfId="211" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="cellIs" dxfId="260" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="expression" dxfId="259" priority="178">
+    <cfRule type="expression" dxfId="209" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="258" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="expression" dxfId="257" priority="176">
+    <cfRule type="expression" dxfId="207" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="cellIs" dxfId="256" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="expression" dxfId="255" priority="174">
+    <cfRule type="expression" dxfId="205" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="cellIs" dxfId="254" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="253" priority="172">
+    <cfRule type="expression" dxfId="203" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="252" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="251" priority="170">
+    <cfRule type="expression" dxfId="201" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="250" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="249" priority="168">
+    <cfRule type="expression" dxfId="199" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="248" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="247" priority="166">
+    <cfRule type="expression" dxfId="197" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="246" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="245" priority="164">
+    <cfRule type="expression" dxfId="195" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="244" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="243" priority="162">
+    <cfRule type="expression" dxfId="193" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="242" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="241" priority="160">
+    <cfRule type="expression" dxfId="191" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="240" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="239" priority="158">
+    <cfRule type="expression" dxfId="189" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="cellIs" dxfId="238" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="237" priority="156">
+    <cfRule type="expression" dxfId="187" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="236" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="expression" dxfId="235" priority="154">
+    <cfRule type="expression" dxfId="185" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="cellIs" dxfId="234" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="expression" dxfId="233" priority="152">
+    <cfRule type="expression" dxfId="183" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="cellIs" dxfId="232" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="expression" dxfId="231" priority="150">
+    <cfRule type="expression" dxfId="181" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="cellIs" dxfId="230" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="expression" dxfId="229" priority="148">
+    <cfRule type="expression" dxfId="179" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="cellIs" dxfId="228" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="227" priority="146">
+    <cfRule type="expression" dxfId="177" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="226" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="225" priority="144">
+    <cfRule type="expression" dxfId="175" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="224" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="223" priority="142">
+    <cfRule type="expression" dxfId="173" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="222" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="221" priority="140">
+    <cfRule type="expression" dxfId="171" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="220" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="219" priority="138">
+    <cfRule type="expression" dxfId="169" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="218" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="217" priority="136">
+    <cfRule type="expression" dxfId="167" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="216" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="expression" dxfId="215" priority="134">
+    <cfRule type="expression" dxfId="165" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="cellIs" dxfId="214" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="expression" dxfId="213" priority="132">
+    <cfRule type="expression" dxfId="163" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="cellIs" dxfId="212" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" dxfId="211" priority="130">
+    <cfRule type="expression" dxfId="161" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="210" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="209" priority="128">
+    <cfRule type="expression" dxfId="159" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="208" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="207" priority="126">
+    <cfRule type="expression" dxfId="157" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="206" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="205" priority="124">
+    <cfRule type="expression" dxfId="155" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="204" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="203" priority="122">
+    <cfRule type="expression" dxfId="153" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="202" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="201" priority="120">
+    <cfRule type="expression" dxfId="151" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="200" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="199" priority="118">
+    <cfRule type="expression" dxfId="149" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="198" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="197" priority="116">
+    <cfRule type="expression" dxfId="147" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="196" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="195" priority="114">
+    <cfRule type="expression" dxfId="145" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="194" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="expression" dxfId="193" priority="112">
+    <cfRule type="expression" dxfId="143" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="cellIs" dxfId="192" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="191" priority="96">
+    <cfRule type="expression" dxfId="141" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="190" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="189" priority="110">
+    <cfRule type="expression" dxfId="139" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="188" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="187" priority="108">
+    <cfRule type="expression" dxfId="137" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="186" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="185" priority="106">
+    <cfRule type="expression" dxfId="135" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="184" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="183" priority="104">
+    <cfRule type="expression" dxfId="133" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="182" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="expression" dxfId="181" priority="102">
+    <cfRule type="expression" dxfId="131" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="cellIs" dxfId="180" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="179" priority="100">
+    <cfRule type="expression" dxfId="129" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="178" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="177" priority="98">
+    <cfRule type="expression" dxfId="127" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="176" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="175" priority="94">
+    <cfRule type="expression" dxfId="125" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="174" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="173" priority="92">
+    <cfRule type="expression" dxfId="123" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="172" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="expression" dxfId="171" priority="90">
+    <cfRule type="expression" dxfId="121" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="cellIs" dxfId="170" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="169" priority="88">
+    <cfRule type="expression" dxfId="119" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="168" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="167" priority="86">
+    <cfRule type="expression" dxfId="117" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="166" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="165" priority="84">
+    <cfRule type="expression" dxfId="115" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="164" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="163" priority="82">
+    <cfRule type="expression" dxfId="113" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="162" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="161" priority="80">
+    <cfRule type="expression" dxfId="111" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="160" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="159" priority="78">
+    <cfRule type="expression" dxfId="109" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="158" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="157" priority="74">
+    <cfRule type="expression" dxfId="107" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="156" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="155" priority="76">
+    <cfRule type="expression" dxfId="105" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="154" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="153" priority="72">
+    <cfRule type="expression" dxfId="103" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="152" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="151" priority="64">
+    <cfRule type="expression" dxfId="101" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="150" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="149" priority="70">
+    <cfRule type="expression" dxfId="99" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="148" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="147" priority="68">
+    <cfRule type="expression" dxfId="97" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="146" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="145" priority="66">
+    <cfRule type="expression" dxfId="95" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="144" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="143" priority="62">
+    <cfRule type="expression" dxfId="93" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="142" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="141" priority="60">
+    <cfRule type="expression" dxfId="91" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="140" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="139" priority="58">
+    <cfRule type="expression" dxfId="89" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="138" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="137" priority="56">
+    <cfRule type="expression" dxfId="87" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="136" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="135" priority="54">
+    <cfRule type="expression" dxfId="85" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="134" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="133" priority="52">
+    <cfRule type="expression" dxfId="83" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="132" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="131" priority="50">
+    <cfRule type="expression" dxfId="81" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="130" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="129" priority="48">
+    <cfRule type="expression" dxfId="79" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="128" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="expression" dxfId="127" priority="46">
+    <cfRule type="expression" dxfId="77" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="cellIs" dxfId="126" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="125" priority="44">
+    <cfRule type="expression" dxfId="75" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="cellIs" dxfId="124" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="123" priority="42">
+    <cfRule type="expression" dxfId="73" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="122" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="121" priority="40">
+    <cfRule type="expression" dxfId="71" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="120" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="119" priority="38">
+    <cfRule type="expression" dxfId="69" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="117" priority="36">
+    <cfRule type="expression" dxfId="67" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="116" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="115" priority="34">
+    <cfRule type="expression" dxfId="65" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="114" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="113" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="112" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="111" priority="28">
+    <cfRule type="expression" dxfId="61" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="110" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="expression" dxfId="109" priority="26">
+    <cfRule type="expression" dxfId="59" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="cellIs" dxfId="108" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="107" priority="24">
+    <cfRule type="expression" dxfId="57" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="106" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="105" priority="22">
+    <cfRule type="expression" dxfId="55" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="104" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="103" priority="20">
+    <cfRule type="expression" dxfId="53" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="102" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="expression" dxfId="101" priority="18">
+    <cfRule type="expression" dxfId="51" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="expression" dxfId="99" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="98" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="97" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="95" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="93" priority="10">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="92" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="91" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="90" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="expression" dxfId="89" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="cellIs" dxfId="88" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="84" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35964,52 +35656,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19 L19:R19 D19:J19">
-    <cfRule type="expression" dxfId="83" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19 L19:R19 D19:J19">
-    <cfRule type="cellIs" dxfId="82" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="expression" dxfId="81" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="cellIs" dxfId="80" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="79" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="78" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="77" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="76" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="74" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36022,7 +35714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA19" sqref="AA1:AA19"/>
     </sheetView>
   </sheetViews>
@@ -37235,7 +36927,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -37286,7 +36978,7 @@
       <c r="Q17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="R17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S17" s="5">
@@ -37737,32 +37429,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 M19:R19 A19:J19">
-    <cfRule type="expression" dxfId="73" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 M19:R19 A19:J19">
-    <cfRule type="cellIs" dxfId="72" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="cellIs" dxfId="70" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="cellIs" dxfId="68" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/data/floor builder 20170429.xlsx
+++ b/model/data/floor builder 20170429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2414,7 +2414,1085 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1034">
+  <dxfs count="1192">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2510,6 +3588,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12346,12 +13452,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1033" priority="2">
+    <cfRule type="expression" dxfId="1191" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1032" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14079,32 +15185,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 M19:R19 A19:J19">
-    <cfRule type="expression" dxfId="33" priority="6">
+    <cfRule type="expression" dxfId="187" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 M19:R19 A19:J19">
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="185" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="183" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15832,52 +16938,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 L19:P19 E19:J19">
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="181" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 L19:P19 E19:J19">
-    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="179" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="cellIs" dxfId="24" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="177" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="175" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="173" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17595,22 +18701,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 F19:J19 L19:M19">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="171" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 F19:J19 L19:M19">
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="169" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20024,22 +21130,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21767,12 +22873,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1031" priority="2">
+    <cfRule type="expression" dxfId="1189" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1030" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1188" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23500,22 +24606,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1029" priority="4">
+    <cfRule type="expression" dxfId="1187" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1028" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1186" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="expression" dxfId="1027" priority="2">
+    <cfRule type="expression" dxfId="1185" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="cellIs" dxfId="1026" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1184" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25243,32 +26349,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="1025" priority="6">
+    <cfRule type="expression" dxfId="1183" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="1024" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="expression" dxfId="1023" priority="4">
+    <cfRule type="expression" dxfId="1181" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="cellIs" dxfId="1022" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1180" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="expression" dxfId="1021" priority="2">
+    <cfRule type="expression" dxfId="1179" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="cellIs" dxfId="1020" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25281,7 +26387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA19"/>
     </sheetView>
   </sheetViews>
@@ -26996,22 +28102,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19:J19 L19:R19">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="1177" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1176" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1175" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27024,8 +28130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA1:AA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27301,20 +28407,20 @@
       <c r="H4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>6</v>
+      <c r="I4" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>6</v>
+      <c r="K4" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>6</v>
+      <c r="M4" t="s">
+        <v>11</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>6</v>
@@ -27344,11 +28450,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        / - \       </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        / - \       ',</v>
       </c>
       <c r="AJ4" t="s">
         <v>6</v>
@@ -27385,20 +28491,20 @@
       <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>12</v>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>16</v>
+      <c r="J5" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
-        <v>11</v>
+      <c r="L5" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -27431,11 +28537,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">|      / - \      1 </v>
+        <v xml:space="preserve">|                 1 </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'|      / - \      1 ',</v>
+        <v>'|                 1 ',</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -27475,31 +28581,31 @@
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="N6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="12" t="s">
@@ -27521,11 +28627,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       1 + |        </v>
+        <v xml:space="preserve">        1 + |       </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'       1 + |        ',</v>
+        <v>'        1 + |       ',</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -27640,38 +28746,38 @@
       <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
         <v>275</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="L8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>11</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>6</v>
@@ -27692,11 +28798,11 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">W   /- ] + [ -\   E </v>
+        <v xml:space="preserve">W   / - ] + [ -\  E </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'W   /- ] + [ -\   E ',</v>
+        <v>'W   / - ] + [ -\  E ',</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -27799,38 +28905,38 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>30</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>6</v>
@@ -27851,11 +28957,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    1+ + + + +|     </v>
+        <v xml:space="preserve">    1 + + + + +|    </v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'    1+ + + + +|     ',</v>
+        <v>'    1 + + + + +|    ',</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -27970,38 +29076,38 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
         <v>274</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
         <v>273</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>13</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>6</v>
@@ -28022,11 +29128,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">|   (= } + { =)   1 </v>
+        <v xml:space="preserve">|   ( = } + { =)  1 </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'|   (= } + { =)   1 ',</v>
+        <v>'|   ( = } + { =)  1 ',</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -28132,23 +29238,23 @@
       <c r="G14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="L14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
         <v>30</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>6</v>
@@ -28178,11 +29284,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">|      1 + |      1 </v>
+        <v xml:space="preserve">|       1 + |     1 </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'|      1 + |      1 ',</v>
+        <v>'|       1 + |     1 ',</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -28207,23 +29313,23 @@
       <c r="G15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
         <v>13</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>6</v>
@@ -28253,11 +29359,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">       ( = )        </v>
+        <v xml:space="preserve">        ( = )       </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'       ( = )        ',</v>
+        <v>'        ( = )       ',</v>
       </c>
       <c r="AJ15" t="s">
         <v>14</v>
@@ -28886,1313 +29992,1843 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D5:G5 O5:P6 D7:P7 D11 D13:P13 D15:G15 D17:O17 M5:O5 F11:N11 F9:N9 D9 M15:P15 P9 P11">
-    <cfRule type="expression" dxfId="1019" priority="314">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D5:G5 O5:P6 D7:P7 D11 D13:P13 D15:G15 D17:O17 M5:O5 F11:N11 F9:N9 D9 M15:P15 P9 P11">
-    <cfRule type="cellIs" dxfId="1018" priority="313" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D11 D17:O17 D9 D7:E7 D13:E13 D15:E15 O5:P6 G11:P11 G9:P9 M15:P15 G15:H15 G13:P13 G7:P7 F6:F15 D5:N5">
+    <cfRule type="expression" dxfId="1173" priority="454">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D11 D17:O17 D9 D7:E7 D13:E13 D15:E15 O5:P6 G11:P11 G9:P9 M15:P15 G15:H15 G13:P13 G7:P7 F6:F15 D5:N5">
+    <cfRule type="cellIs" dxfId="1172" priority="453" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="expression" dxfId="1017" priority="312">
+    <cfRule type="expression" dxfId="1171" priority="452">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="cellIs" dxfId="1016" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="451" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="expression" dxfId="1015" priority="302">
+    <cfRule type="expression" dxfId="1169" priority="442">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="cellIs" dxfId="1014" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="441" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="1013" priority="308">
+    <cfRule type="expression" dxfId="1167" priority="448">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="1012" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="447" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="expression" dxfId="1011" priority="306">
+    <cfRule type="expression" dxfId="1165" priority="446">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="cellIs" dxfId="1010" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="445" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1009" priority="304">
+    <cfRule type="expression" dxfId="1163" priority="444">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1008" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1162" priority="443" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="1007" priority="172">
+    <cfRule type="expression" dxfId="1161" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="1006" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1005" priority="300">
+    <cfRule type="expression" dxfId="1159" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="1004" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="expression" dxfId="1003" priority="298">
+    <cfRule type="expression" dxfId="1157" priority="438">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="cellIs" dxfId="1002" priority="297" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 H10 J10 L10">
-    <cfRule type="expression" dxfId="1001" priority="294">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 H10 J10 L10">
-    <cfRule type="cellIs" dxfId="1000" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="437" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 J10 L10">
+    <cfRule type="expression" dxfId="1155" priority="434">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 J10 L10">
+    <cfRule type="cellIs" dxfId="1154" priority="433" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="999" priority="286">
+    <cfRule type="expression" dxfId="1153" priority="426">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="998" priority="285" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="425" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="997" priority="284">
+    <cfRule type="expression" dxfId="1151" priority="424">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="996" priority="283" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="423" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="995" priority="282">
+    <cfRule type="expression" dxfId="1149" priority="422">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="994" priority="281" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="993" priority="278">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="992" priority="277" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="421" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="991" priority="276">
+    <cfRule type="expression" dxfId="1145" priority="416">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="990" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="415" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="989" priority="272">
+    <cfRule type="expression" dxfId="1143" priority="412">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="988" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="411" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="987" priority="270">
+    <cfRule type="expression" dxfId="1141" priority="410">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="986" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="409" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="985" priority="268">
+    <cfRule type="expression" dxfId="1139" priority="408">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="984" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="407" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="983" priority="264">
+    <cfRule type="expression" dxfId="1137" priority="404">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="982" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="403" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="981" priority="262">
+    <cfRule type="expression" dxfId="1135" priority="402">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="980" priority="261" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="979" priority="260">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="978" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="401" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="977" priority="258">
+    <cfRule type="expression" dxfId="1131" priority="398">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="976" priority="257" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="397" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="975" priority="256">
+    <cfRule type="expression" dxfId="1129" priority="396">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="974" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="395" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="973" priority="254">
+    <cfRule type="expression" dxfId="1127" priority="394">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="972" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="393" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="971" priority="250">
+    <cfRule type="expression" dxfId="1125" priority="390">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="970" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="389" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="969" priority="246">
+    <cfRule type="expression" dxfId="1123" priority="386">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="968" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="385" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="967" priority="244">
+    <cfRule type="expression" dxfId="1121" priority="384">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="966" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="383" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="965" priority="242">
+    <cfRule type="expression" dxfId="1119" priority="382">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="964" priority="241" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="381" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="963" priority="240">
+    <cfRule type="expression" dxfId="1117" priority="380">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="962" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="379" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="961" priority="238">
+    <cfRule type="expression" dxfId="1115" priority="378">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="960" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="377" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="959" priority="236">
+    <cfRule type="expression" dxfId="1113" priority="376">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="958" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="375" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="957" priority="234">
+    <cfRule type="expression" dxfId="1111" priority="374">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="956" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="373" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="955" priority="232">
+    <cfRule type="expression" dxfId="1109" priority="372">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="954" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="371" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="953" priority="230">
+    <cfRule type="expression" dxfId="1107" priority="370">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="952" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="369" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="951" priority="228">
+    <cfRule type="expression" dxfId="1105" priority="368">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="950" priority="227" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="949" priority="216">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="948" priority="215" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="947" priority="214">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="946" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="367" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="945" priority="212">
+    <cfRule type="expression" dxfId="1099" priority="352">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="944" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="351" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="943" priority="210">
+    <cfRule type="expression" dxfId="1097" priority="350">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="942" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="349" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="941" priority="208">
+    <cfRule type="expression" dxfId="1095" priority="348">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="940" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="347" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="939" priority="206">
+    <cfRule type="expression" dxfId="1093" priority="346">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="938" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="345" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="937" priority="204">
+    <cfRule type="expression" dxfId="1091" priority="344">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="936" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="343" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="935" priority="202">
+    <cfRule type="expression" dxfId="1089" priority="342">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="934" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="341" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="933" priority="198">
+    <cfRule type="expression" dxfId="1087" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="932" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="931" priority="196">
+    <cfRule type="expression" dxfId="1085" priority="336">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="930" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="335" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="929" priority="194">
+    <cfRule type="expression" dxfId="1083" priority="334">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="928" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="333" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="927" priority="192">
+    <cfRule type="expression" dxfId="1081" priority="332">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="926" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="331" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="925" priority="190">
+    <cfRule type="expression" dxfId="1079" priority="330">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="924" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="329" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="923" priority="186">
+    <cfRule type="expression" dxfId="1077" priority="326">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="922" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="325" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="921" priority="184">
+    <cfRule type="expression" dxfId="1075" priority="324">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="920" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="323" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="919" priority="182">
+    <cfRule type="expression" dxfId="1073" priority="322">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="918" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="321" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="917" priority="180">
+    <cfRule type="expression" dxfId="1071" priority="320">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="916" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="319" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="915" priority="178">
+    <cfRule type="expression" dxfId="1069" priority="318">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="914" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="317" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="1065" priority="310">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="1064" priority="309" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="1063" priority="308">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="cellIs" dxfId="1062" priority="307" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="1061" priority="306">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="1060" priority="305" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="1059" priority="202">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="cellIs" dxfId="1058" priority="201" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 I10 K10 M10">
+    <cfRule type="expression" dxfId="1057" priority="304">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 I10 K10 M10">
+    <cfRule type="cellIs" dxfId="1056" priority="303" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="1055" priority="300">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="1054" priority="299" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="1053" priority="298">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="1052" priority="297" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="1051" priority="296">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="1050" priority="295" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="1049" priority="294">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="1048" priority="293" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1047" priority="290">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="1046" priority="289" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="1045" priority="288">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="1044" priority="287" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="1041" priority="284">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="1040" priority="283" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="1039" priority="282">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="1038" priority="281" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="1037" priority="280">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="1036" priority="279" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="1035" priority="278">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="1034" priority="277" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="1033" priority="276">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="1032" priority="275" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="1031" priority="274">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="1030" priority="273" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="1029" priority="272">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="1028" priority="271" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="1027" priority="270">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="1026" priority="269" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="1025" priority="268">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="1024" priority="267" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="1023" priority="266">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="1022" priority="265" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="1021" priority="264">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="1020" priority="263" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="expression" dxfId="1019" priority="262">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="1018" priority="261" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="expression" dxfId="1017" priority="260">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="cellIs" dxfId="1016" priority="259" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="1015" priority="258">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="1014" priority="257" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" dxfId="1013" priority="256">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="1012" priority="255" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="expression" dxfId="1011" priority="254">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="1010" priority="253" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="1009" priority="252">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="1008" priority="251" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="1007" priority="246">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="1006" priority="245" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="1005" priority="244">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="1004" priority="243" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="1001" priority="240">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="1000" priority="239" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="999" priority="238">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="998" priority="237" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="997" priority="236">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="996" priority="235" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="995" priority="234">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="994" priority="233" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="993" priority="232">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="992" priority="231" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="991" priority="228">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="990" priority="227" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="989" priority="226">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="988" priority="225" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" dxfId="987" priority="224">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="986" priority="223" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="985" priority="222">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="984" priority="221" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="983" priority="220">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="982" priority="219" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="981" priority="212">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="980" priority="211" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="expression" dxfId="979" priority="210">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="978" priority="209" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="977" priority="208">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="cellIs" dxfId="976" priority="207" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="expression" dxfId="973" priority="204">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="cellIs" dxfId="972" priority="203" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="expression" dxfId="971" priority="200">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="cellIs" dxfId="970" priority="199" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="969" priority="198">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="968" priority="197" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18 A20">
+    <cfRule type="expression" dxfId="967" priority="196">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18 A20">
+    <cfRule type="cellIs" dxfId="966" priority="195" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S20">
+    <cfRule type="expression" dxfId="965" priority="194">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S20">
+    <cfRule type="cellIs" dxfId="964" priority="193" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:N5">
+    <cfRule type="expression" dxfId="963" priority="192">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:N5">
+    <cfRule type="cellIs" dxfId="962" priority="191" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="953" priority="182">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="952" priority="181" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 E11">
+    <cfRule type="expression" dxfId="951" priority="180">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 E11">
+    <cfRule type="cellIs" dxfId="950" priority="179" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="949" priority="178">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="948" priority="177" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="947" priority="176">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="946" priority="175" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="945" priority="174">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="944" priority="173" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="943" priority="172">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="942" priority="171" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="941" priority="170">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="940" priority="169" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="939" priority="168">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="938" priority="167" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="expression" dxfId="937" priority="166">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="936" priority="165" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="935" priority="164">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="934" priority="163" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="933" priority="162">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="932" priority="161" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="931" priority="160">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="930" priority="159" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="929" priority="158">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="928" priority="157" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="927" priority="156">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="926" priority="155" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="expression" dxfId="925" priority="154">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="924" priority="153" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="expression" dxfId="923" priority="152">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="922" priority="151" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9 O11">
+    <cfRule type="expression" dxfId="921" priority="150">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9 O11">
+    <cfRule type="cellIs" dxfId="920" priority="149" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O12">
+    <cfRule type="expression" dxfId="919" priority="148">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O12">
+    <cfRule type="cellIs" dxfId="918" priority="147" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="expression" dxfId="917" priority="146">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="cellIs" dxfId="916" priority="145" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="expression" dxfId="915" priority="144">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="cellIs" dxfId="914" priority="143" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="expression" dxfId="913" priority="142">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="cellIs" dxfId="912" priority="141" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 I10 K10 M10">
+    <cfRule type="expression" dxfId="163" priority="140">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 I10 K10 M10">
+    <cfRule type="cellIs" dxfId="162" priority="139" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="expression" dxfId="161" priority="138">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="160" priority="137" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="159" priority="136">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="158" priority="135" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="157" priority="134">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="156" priority="133" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="155" priority="132">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="154" priority="131" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="153" priority="130">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="cellIs" dxfId="152" priority="129" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="151" priority="128">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="150" priority="127" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="149" priority="126">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="148" priority="125" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="expression" dxfId="147" priority="124">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="146" priority="123" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="145" priority="122">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="144" priority="121" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="143" priority="120">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="142" priority="119" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="141" priority="118">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="140" priority="117" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="139" priority="116">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="138" priority="115" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="137" priority="114">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="136" priority="113" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="135" priority="112">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="134" priority="111" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="expression" dxfId="133" priority="110">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="132" priority="109" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="131" priority="108">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="130" priority="107" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="expression" dxfId="129" priority="106">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="128" priority="105" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="127" priority="104">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="126" priority="103" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="expression" dxfId="125" priority="102">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="expression" dxfId="123" priority="100">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="cellIs" dxfId="122" priority="99" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="121" priority="98">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="cellIs" dxfId="120" priority="97" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="119" priority="96">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="118" priority="95" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="expression" dxfId="117" priority="94">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="116" priority="93" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="115" priority="92">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="cellIs" dxfId="114" priority="91" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 J10 L10 N10">
+    <cfRule type="expression" dxfId="113" priority="90">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10 J10 L10 N10">
+    <cfRule type="cellIs" dxfId="112" priority="89" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="111" priority="88">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="110" priority="87" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="expression" dxfId="109" priority="86">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="108" priority="85" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="expression" dxfId="107" priority="84">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="106" priority="83" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="expression" dxfId="105" priority="82">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="cellIs" dxfId="104" priority="81" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="expression" dxfId="103" priority="80">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="102" priority="79" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="101" priority="78">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="100" priority="77" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="expression" dxfId="99" priority="76">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="98" priority="75" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="expression" dxfId="97" priority="74">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="96" priority="73" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="95" priority="72">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="94" priority="71" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="93" priority="70">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="cellIs" dxfId="92" priority="69" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="91" priority="68">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="90" priority="67" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="89" priority="66">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="88" priority="65" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="87" priority="64">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="86" priority="63" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="85" priority="62">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="84" priority="61" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="83" priority="60">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="82" priority="59" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="81" priority="58">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="80" priority="57" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="expression" dxfId="79" priority="56">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="cellIs" dxfId="78" priority="55" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="77" priority="54">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="76" priority="53" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="75" priority="52">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="cellIs" dxfId="74" priority="51" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="73" priority="50">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="cellIs" dxfId="72" priority="49" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="71" priority="48">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="70" priority="47" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="expression" dxfId="69" priority="46">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="68" priority="45" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="expression" dxfId="57" priority="34">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="expression" dxfId="55" priority="32">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="53" priority="30">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="52" priority="29" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="expression" dxfId="51" priority="28">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="expression" dxfId="49" priority="26">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9 P11">
+    <cfRule type="expression" dxfId="47" priority="24">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9 P11">
+    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P12">
+    <cfRule type="expression" dxfId="45" priority="22">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P12">
+    <cfRule type="cellIs" dxfId="44" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="913" priority="174">
+    <cfRule type="expression" dxfId="43" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="912" priority="173" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="911" priority="170">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="910" priority="169" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="909" priority="168">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="908" priority="167" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="907" priority="166">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="906" priority="165" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="905" priority="62">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="904" priority="61" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="expression" dxfId="903" priority="164">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="cellIs" dxfId="902" priority="163" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="901" priority="160">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="900" priority="159" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="899" priority="158">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="898" priority="157" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="897" priority="156">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="896" priority="155" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="895" priority="154">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="894" priority="153" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="893" priority="150">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="892" priority="149" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="891" priority="148">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="890" priority="147" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="889" priority="146">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="888" priority="145" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="887" priority="144">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="886" priority="143" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="885" priority="142">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="884" priority="141" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="883" priority="140">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="882" priority="139" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="881" priority="138">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="880" priority="137" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="879" priority="136">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="878" priority="135" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="877" priority="134">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="876" priority="133" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="875" priority="132">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="874" priority="131" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="873" priority="130">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="872" priority="129" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="871" priority="128">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="870" priority="127" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="869" priority="126">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="868" priority="125" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="867" priority="124">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="866" priority="123" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="865" priority="122">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="864" priority="121" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="863" priority="120">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="862" priority="119" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="861" priority="118">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="860" priority="117" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="859" priority="116">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="858" priority="115" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="857" priority="114">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="856" priority="113" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="855" priority="112">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="854" priority="111" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="853" priority="106">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="852" priority="105" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="851" priority="104">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="850" priority="103" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="849" priority="102">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="848" priority="101" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="847" priority="100">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="846" priority="99" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="845" priority="98">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="844" priority="97" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="843" priority="96">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="842" priority="95" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="841" priority="94">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="840" priority="93" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="839" priority="92">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="838" priority="91" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="837" priority="88">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="836" priority="87" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="835" priority="86">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="834" priority="85" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="833" priority="84">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="832" priority="83" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="831" priority="82">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="830" priority="81" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="829" priority="80">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="828" priority="79" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="827" priority="72">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="826" priority="71" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="825" priority="70">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="824" priority="69" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="823" priority="68">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="822" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="39" priority="18">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="37" priority="17" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="35" priority="16">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="27" priority="12">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="23" priority="10">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="821" priority="66">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="820" priority="65" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="819" priority="64">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="818" priority="63" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="817" priority="60">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="816" priority="59" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="815" priority="58">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="814" priority="57" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="expression" dxfId="813" priority="56">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="cellIs" dxfId="812" priority="55" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S20">
-    <cfRule type="expression" dxfId="811" priority="54">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S20">
-    <cfRule type="cellIs" dxfId="810" priority="53" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="809" priority="52">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="808" priority="51" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="807" priority="50">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="806" priority="49" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="805" priority="48">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="804" priority="47" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="803" priority="46">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="802" priority="45" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="801" priority="44">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="800" priority="43" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:L4">
-    <cfRule type="expression" dxfId="799" priority="42">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:L4">
-    <cfRule type="cellIs" dxfId="798" priority="41" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 E11">
-    <cfRule type="expression" dxfId="797" priority="40">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 E11">
-    <cfRule type="cellIs" dxfId="796" priority="39" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="795" priority="38">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="794" priority="37" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="793" priority="36">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="792" priority="35" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="791" priority="34">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="790" priority="33" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="789" priority="32">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="788" priority="31" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="787" priority="30">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="786" priority="29" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="785" priority="28">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="784" priority="27" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="783" priority="26">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="782" priority="25" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="781" priority="24">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="780" priority="23" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="779" priority="22">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="778" priority="21" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="777" priority="20">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="776" priority="19" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="775" priority="18">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="774" priority="17" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="773" priority="16">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="772" priority="15" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="771" priority="14">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="770" priority="13" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="769" priority="12">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="768" priority="11" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O11">
-    <cfRule type="expression" dxfId="767" priority="10">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O11">
-    <cfRule type="cellIs" dxfId="766" priority="9" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O12">
-    <cfRule type="expression" dxfId="765" priority="8">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O12">
-    <cfRule type="cellIs" dxfId="764" priority="7" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="763" priority="6">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="762" priority="5" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="761" priority="4">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="760" priority="3" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="759" priority="2">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="758" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32068,1952 +33704,1952 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="expression" dxfId="757" priority="528">
+    <cfRule type="expression" dxfId="911" priority="528">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="cellIs" dxfId="756" priority="527" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="527" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="expression" dxfId="755" priority="526">
+    <cfRule type="expression" dxfId="909" priority="526">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="cellIs" dxfId="754" priority="525" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="525" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="expression" dxfId="753" priority="518">
+    <cfRule type="expression" dxfId="907" priority="518">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="cellIs" dxfId="752" priority="517" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="517" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="751" priority="524">
+    <cfRule type="expression" dxfId="905" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="750" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="expression" dxfId="749" priority="522">
+    <cfRule type="expression" dxfId="903" priority="522">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="cellIs" dxfId="748" priority="521" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="521" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="747" priority="520">
+    <cfRule type="expression" dxfId="901" priority="520">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="746" priority="519" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="519" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="745" priority="404">
+    <cfRule type="expression" dxfId="899" priority="404">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="744" priority="403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="403" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="743" priority="516">
+    <cfRule type="expression" dxfId="897" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="742" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="expression" dxfId="741" priority="514">
+    <cfRule type="expression" dxfId="895" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="cellIs" dxfId="740" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="expression" dxfId="739" priority="512">
+    <cfRule type="expression" dxfId="893" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="cellIs" dxfId="738" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="737" priority="510">
+    <cfRule type="expression" dxfId="891" priority="510">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="736" priority="509" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="509" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="735" priority="508">
+    <cfRule type="expression" dxfId="889" priority="508">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="734" priority="507" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="507" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="733" priority="506">
+    <cfRule type="expression" dxfId="887" priority="506">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="732" priority="505" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="505" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="731" priority="500">
+    <cfRule type="expression" dxfId="885" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="730" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="729" priority="498">
+    <cfRule type="expression" dxfId="883" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="728" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="727" priority="494">
+    <cfRule type="expression" dxfId="881" priority="494">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="726" priority="493" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="493" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="725" priority="490">
+    <cfRule type="expression" dxfId="879" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="724" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="723" priority="486">
+    <cfRule type="expression" dxfId="877" priority="486">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="722" priority="485" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="485" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="721" priority="470">
+    <cfRule type="expression" dxfId="875" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="720" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="719" priority="468">
+    <cfRule type="expression" dxfId="873" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="718" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="717" priority="466">
+    <cfRule type="expression" dxfId="871" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="716" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="715" priority="464">
+    <cfRule type="expression" dxfId="869" priority="464">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="714" priority="463" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="463" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="713" priority="462">
+    <cfRule type="expression" dxfId="867" priority="462">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="712" priority="461" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="461" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="711" priority="460">
+    <cfRule type="expression" dxfId="865" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="710" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="709" priority="446">
+    <cfRule type="expression" dxfId="863" priority="446">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="708" priority="445" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="445" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="707" priority="440">
+    <cfRule type="expression" dxfId="861" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="706" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="705" priority="434">
+    <cfRule type="expression" dxfId="859" priority="434">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="704" priority="433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="433" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="703" priority="428">
+    <cfRule type="expression" dxfId="857" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="702" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="701" priority="424">
+    <cfRule type="expression" dxfId="855" priority="424">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="700" priority="423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="423" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="699" priority="418">
+    <cfRule type="expression" dxfId="853" priority="418">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="698" priority="417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="417" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="697" priority="416">
+    <cfRule type="expression" dxfId="851" priority="416">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="696" priority="415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="415" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="695" priority="414">
+    <cfRule type="expression" dxfId="849" priority="414">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="694" priority="413" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="413" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="693" priority="412">
+    <cfRule type="expression" dxfId="847" priority="412">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="692" priority="411" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="411" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="691" priority="410">
+    <cfRule type="expression" dxfId="845" priority="410">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="690" priority="409" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="409" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="689" priority="408">
+    <cfRule type="expression" dxfId="843" priority="408">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="688" priority="407" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="407" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="687" priority="406">
+    <cfRule type="expression" dxfId="841" priority="406">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="686" priority="405" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="405" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="685" priority="402">
+    <cfRule type="expression" dxfId="839" priority="402">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="684" priority="401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="401" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="683" priority="400">
+    <cfRule type="expression" dxfId="837" priority="400">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="682" priority="399" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="399" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="681" priority="294">
+    <cfRule type="expression" dxfId="835" priority="294">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="680" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="293" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="expression" dxfId="679" priority="396">
+    <cfRule type="expression" dxfId="833" priority="396">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="cellIs" dxfId="678" priority="395" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="395" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="677" priority="392">
+    <cfRule type="expression" dxfId="831" priority="392">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="676" priority="391" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="391" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="675" priority="390">
+    <cfRule type="expression" dxfId="829" priority="390">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="674" priority="389" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="389" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="673" priority="388">
+    <cfRule type="expression" dxfId="827" priority="388">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="672" priority="387" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="387" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="671" priority="386">
+    <cfRule type="expression" dxfId="825" priority="386">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="670" priority="385" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="385" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="669" priority="384">
+    <cfRule type="expression" dxfId="823" priority="384">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="668" priority="383" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="383" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="667" priority="380">
+    <cfRule type="expression" dxfId="821" priority="380">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="666" priority="379" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="379" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="665" priority="374">
+    <cfRule type="expression" dxfId="819" priority="374">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="664" priority="373" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="373" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="663" priority="372">
+    <cfRule type="expression" dxfId="817" priority="372">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="662" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="371" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="661" priority="358">
+    <cfRule type="expression" dxfId="815" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="660" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="659" priority="356">
+    <cfRule type="expression" dxfId="813" priority="356">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="658" priority="355" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="355" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="657" priority="354">
+    <cfRule type="expression" dxfId="811" priority="354">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="656" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="353" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="655" priority="352">
+    <cfRule type="expression" dxfId="809" priority="352">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="654" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="351" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="653" priority="350">
+    <cfRule type="expression" dxfId="807" priority="350">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="652" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="349" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="651" priority="348">
+    <cfRule type="expression" dxfId="805" priority="348">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="650" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="347" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="649" priority="338">
+    <cfRule type="expression" dxfId="803" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="648" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="647" priority="336">
+    <cfRule type="expression" dxfId="801" priority="336">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="646" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="335" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="645" priority="334">
+    <cfRule type="expression" dxfId="799" priority="334">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="644" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="333" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="643" priority="326">
+    <cfRule type="expression" dxfId="797" priority="326">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="642" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="325" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="641" priority="324">
+    <cfRule type="expression" dxfId="795" priority="324">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="640" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="323" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="639" priority="318">
+    <cfRule type="expression" dxfId="793" priority="318">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="638" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="317" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="637" priority="316">
+    <cfRule type="expression" dxfId="791" priority="316">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="636" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="315" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="635" priority="314">
+    <cfRule type="expression" dxfId="789" priority="314">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="634" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="313" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="633" priority="312">
+    <cfRule type="expression" dxfId="787" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="632" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="631" priority="310">
+    <cfRule type="expression" dxfId="785" priority="310">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="630" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="309" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="629" priority="308">
+    <cfRule type="expression" dxfId="783" priority="308">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="628" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="307" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="627" priority="306">
+    <cfRule type="expression" dxfId="781" priority="306">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="626" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="305" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="625" priority="304">
+    <cfRule type="expression" dxfId="779" priority="304">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="624" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="303" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="623" priority="302">
+    <cfRule type="expression" dxfId="777" priority="302">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="622" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="301" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="621" priority="300">
+    <cfRule type="expression" dxfId="775" priority="300">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="620" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="299" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="619" priority="298">
+    <cfRule type="expression" dxfId="773" priority="298">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="618" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="297" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="617" priority="296">
+    <cfRule type="expression" dxfId="771" priority="296">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="616" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="295" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="615" priority="292">
+    <cfRule type="expression" dxfId="769" priority="292">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="614" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="291" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="expression" dxfId="613" priority="290">
+    <cfRule type="expression" dxfId="767" priority="290">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="cellIs" dxfId="612" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="289" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="611" priority="252">
+    <cfRule type="expression" dxfId="765" priority="252">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="610" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="251" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="609" priority="288">
+    <cfRule type="expression" dxfId="763" priority="288">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="608" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="287" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="607" priority="276">
+    <cfRule type="expression" dxfId="761" priority="276">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="606" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="275" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="605" priority="268">
+    <cfRule type="expression" dxfId="759" priority="268">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="604" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="267" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="603" priority="262">
+    <cfRule type="expression" dxfId="757" priority="262">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="602" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="261" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="601" priority="260">
+    <cfRule type="expression" dxfId="755" priority="260">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="600" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="259" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="599" priority="254">
+    <cfRule type="expression" dxfId="753" priority="254">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="598" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="253" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="597" priority="250">
+    <cfRule type="expression" dxfId="751" priority="250">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="596" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="249" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="595" priority="212">
+    <cfRule type="expression" dxfId="749" priority="212">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="594" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="211" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="593" priority="248">
+    <cfRule type="expression" dxfId="747" priority="248">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="592" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="247" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="591" priority="246">
+    <cfRule type="expression" dxfId="745" priority="246">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="590" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="245" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="589" priority="236">
+    <cfRule type="expression" dxfId="743" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="588" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="587" priority="234">
+    <cfRule type="expression" dxfId="741" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="586" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="585" priority="228">
+    <cfRule type="expression" dxfId="739" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="584" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="583" priority="226">
+    <cfRule type="expression" dxfId="737" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="582" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="581" priority="224">
+    <cfRule type="expression" dxfId="735" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="580" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="579" priority="222">
+    <cfRule type="expression" dxfId="733" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="578" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="577" priority="220">
+    <cfRule type="expression" dxfId="731" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="576" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="575" priority="218">
+    <cfRule type="expression" dxfId="729" priority="218">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="574" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="217" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="573" priority="216">
+    <cfRule type="expression" dxfId="727" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="572" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="571" priority="214">
+    <cfRule type="expression" dxfId="725" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="570" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="569" priority="210">
+    <cfRule type="expression" dxfId="723" priority="210">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="568" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="209" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="expression" dxfId="567" priority="208">
+    <cfRule type="expression" dxfId="721" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="cellIs" dxfId="566" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="565" priority="206">
+    <cfRule type="expression" dxfId="719" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="564" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="563" priority="204">
+    <cfRule type="expression" dxfId="717" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="562" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="561" priority="202">
+    <cfRule type="expression" dxfId="715" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="560" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="expression" dxfId="559" priority="192">
+    <cfRule type="expression" dxfId="713" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="cellIs" dxfId="558" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="557" priority="190">
+    <cfRule type="expression" dxfId="711" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="556" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="555" priority="188">
+    <cfRule type="expression" dxfId="709" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="554" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="553" priority="186">
+    <cfRule type="expression" dxfId="707" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="552" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="expression" dxfId="551" priority="184">
+    <cfRule type="expression" dxfId="705" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="cellIs" dxfId="550" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="549" priority="182">
+    <cfRule type="expression" dxfId="703" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="548" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="547" priority="180">
+    <cfRule type="expression" dxfId="701" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="546" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="545" priority="178">
+    <cfRule type="expression" dxfId="699" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="544" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="543" priority="176">
+    <cfRule type="expression" dxfId="697" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="542" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="541" priority="174">
+    <cfRule type="expression" dxfId="695" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="540" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="539" priority="172">
+    <cfRule type="expression" dxfId="693" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="538" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="537" priority="170">
+    <cfRule type="expression" dxfId="691" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="536" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="535" priority="168">
+    <cfRule type="expression" dxfId="689" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="534" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="533" priority="166">
+    <cfRule type="expression" dxfId="687" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="532" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="531" priority="164">
+    <cfRule type="expression" dxfId="685" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="530" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="529" priority="162">
+    <cfRule type="expression" dxfId="683" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="528" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="527" priority="160">
+    <cfRule type="expression" dxfId="681" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="526" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="525" priority="158">
+    <cfRule type="expression" dxfId="679" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="524" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="523" priority="156">
+    <cfRule type="expression" dxfId="677" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="522" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="521" priority="154">
+    <cfRule type="expression" dxfId="675" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="520" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="519" priority="152">
+    <cfRule type="expression" dxfId="673" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="518" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="517" priority="150">
+    <cfRule type="expression" dxfId="671" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="516" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="515" priority="148">
+    <cfRule type="expression" dxfId="669" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="514" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="513" priority="146">
+    <cfRule type="expression" dxfId="667" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="512" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="511" priority="144">
+    <cfRule type="expression" dxfId="665" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="510" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="509" priority="142">
+    <cfRule type="expression" dxfId="663" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="508" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="507" priority="140">
+    <cfRule type="expression" dxfId="661" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="506" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="505" priority="138">
+    <cfRule type="expression" dxfId="659" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="504" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="503" priority="136">
+    <cfRule type="expression" dxfId="657" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="502" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="501" priority="134">
+    <cfRule type="expression" dxfId="655" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="500" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="499" priority="132">
+    <cfRule type="expression" dxfId="653" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="498" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="expression" dxfId="497" priority="130">
+    <cfRule type="expression" dxfId="651" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="cellIs" dxfId="496" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="495" priority="128">
+    <cfRule type="expression" dxfId="649" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="494" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="493" priority="126">
+    <cfRule type="expression" dxfId="647" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="492" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="491" priority="124">
+    <cfRule type="expression" dxfId="645" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="490" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="489" priority="122">
+    <cfRule type="expression" dxfId="643" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="488" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="487" priority="120">
+    <cfRule type="expression" dxfId="641" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="486" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="485" priority="118">
+    <cfRule type="expression" dxfId="639" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="484" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="483" priority="116">
+    <cfRule type="expression" dxfId="637" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="482" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="expression" dxfId="481" priority="114">
+    <cfRule type="expression" dxfId="635" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="cellIs" dxfId="480" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="479" priority="112">
+    <cfRule type="expression" dxfId="633" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="478" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="477" priority="110">
+    <cfRule type="expression" dxfId="631" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="476" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="475" priority="108">
+    <cfRule type="expression" dxfId="629" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="474" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="473" priority="106">
+    <cfRule type="expression" dxfId="627" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="472" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="471" priority="104">
+    <cfRule type="expression" dxfId="625" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="470" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="469" priority="102">
+    <cfRule type="expression" dxfId="623" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="468" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="467" priority="100">
+    <cfRule type="expression" dxfId="621" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="466" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="465" priority="98">
+    <cfRule type="expression" dxfId="619" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="464" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="463" priority="96">
+    <cfRule type="expression" dxfId="617" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="462" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="461" priority="94">
+    <cfRule type="expression" dxfId="615" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="460" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="459" priority="92">
+    <cfRule type="expression" dxfId="613" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="458" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="457" priority="90">
+    <cfRule type="expression" dxfId="611" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="456" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="455" priority="88">
+    <cfRule type="expression" dxfId="609" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="454" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="453" priority="86">
+    <cfRule type="expression" dxfId="607" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="452" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="451" priority="84">
+    <cfRule type="expression" dxfId="605" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="450" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="449" priority="82">
+    <cfRule type="expression" dxfId="603" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="448" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="447" priority="80">
+    <cfRule type="expression" dxfId="601" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="446" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="445" priority="78">
+    <cfRule type="expression" dxfId="599" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="444" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="443" priority="76">
+    <cfRule type="expression" dxfId="597" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="442" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="441" priority="74">
+    <cfRule type="expression" dxfId="595" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="440" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="439" priority="72">
+    <cfRule type="expression" dxfId="593" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="438" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="expression" dxfId="437" priority="70">
+    <cfRule type="expression" dxfId="591" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="cellIs" dxfId="436" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="435" priority="68">
+    <cfRule type="expression" dxfId="589" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="434" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="433" priority="66">
+    <cfRule type="expression" dxfId="587" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="432" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="431" priority="64">
+    <cfRule type="expression" dxfId="585" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="430" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="expression" dxfId="429" priority="62">
+    <cfRule type="expression" dxfId="583" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="cellIs" dxfId="428" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="427" priority="60">
+    <cfRule type="expression" dxfId="581" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="426" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="425" priority="58">
+    <cfRule type="expression" dxfId="579" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="424" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="423" priority="56">
+    <cfRule type="expression" dxfId="577" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="422" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="expression" dxfId="421" priority="54">
+    <cfRule type="expression" dxfId="575" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="cellIs" dxfId="420" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="419" priority="52">
+    <cfRule type="expression" dxfId="573" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="418" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="417" priority="50">
+    <cfRule type="expression" dxfId="571" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="416" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="415" priority="48">
+    <cfRule type="expression" dxfId="569" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="414" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="413" priority="46">
+    <cfRule type="expression" dxfId="567" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="412" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="411" priority="44">
+    <cfRule type="expression" dxfId="565" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="410" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="409" priority="42">
+    <cfRule type="expression" dxfId="563" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="408" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="407" priority="40">
+    <cfRule type="expression" dxfId="561" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="406" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="405" priority="38">
+    <cfRule type="expression" dxfId="559" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="404" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="403" priority="36">
+    <cfRule type="expression" dxfId="557" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="402" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="401" priority="34">
+    <cfRule type="expression" dxfId="555" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="400" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="399" priority="32">
+    <cfRule type="expression" dxfId="553" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="398" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="397" priority="30">
+    <cfRule type="expression" dxfId="551" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="396" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="395" priority="28">
+    <cfRule type="expression" dxfId="549" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="394" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="393" priority="26">
+    <cfRule type="expression" dxfId="547" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="392" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="391" priority="24">
+    <cfRule type="expression" dxfId="545" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="390" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="389" priority="22">
+    <cfRule type="expression" dxfId="543" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="388" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="387" priority="20">
+    <cfRule type="expression" dxfId="541" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="386" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="385" priority="18">
+    <cfRule type="expression" dxfId="539" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="384" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="383" priority="16">
+    <cfRule type="expression" dxfId="537" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="382" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="381" priority="14">
+    <cfRule type="expression" dxfId="535" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="380" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="379" priority="12">
+    <cfRule type="expression" dxfId="533" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="378" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="377" priority="10">
+    <cfRule type="expression" dxfId="531" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="376" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="375" priority="8">
+    <cfRule type="expression" dxfId="529" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="374" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="373" priority="6">
+    <cfRule type="expression" dxfId="527" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="372" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="371" priority="4">
+    <cfRule type="expression" dxfId="525" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="370" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="369" priority="2">
+    <cfRule type="expression" dxfId="523" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="368" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35889,1622 +37525,1622 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="expression" dxfId="367" priority="626">
+    <cfRule type="expression" dxfId="521" priority="626">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="cellIs" dxfId="366" priority="625" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="625" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="expression" dxfId="365" priority="624">
+    <cfRule type="expression" dxfId="519" priority="624">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="cellIs" dxfId="364" priority="623" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="623" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="expression" dxfId="363" priority="616">
+    <cfRule type="expression" dxfId="517" priority="616">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="cellIs" dxfId="362" priority="615" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="615" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="361" priority="622">
+    <cfRule type="expression" dxfId="515" priority="622">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="360" priority="621" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="621" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="expression" dxfId="359" priority="620">
+    <cfRule type="expression" dxfId="513" priority="620">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="cellIs" dxfId="358" priority="619" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="619" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="expression" dxfId="357" priority="618">
+    <cfRule type="expression" dxfId="511" priority="618">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="cellIs" dxfId="356" priority="617" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="617" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="355" priority="556">
+    <cfRule type="expression" dxfId="509" priority="556">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="354" priority="555" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="555" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="expression" dxfId="353" priority="612">
+    <cfRule type="expression" dxfId="507" priority="612">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="cellIs" dxfId="352" priority="611" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="611" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="351" priority="608">
+    <cfRule type="expression" dxfId="505" priority="608">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="350" priority="607" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="607" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="expression" dxfId="349" priority="606">
+    <cfRule type="expression" dxfId="503" priority="606">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="cellIs" dxfId="348" priority="605" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="605" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="347" priority="604">
+    <cfRule type="expression" dxfId="501" priority="604">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="346" priority="603" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="603" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="345" priority="596">
+    <cfRule type="expression" dxfId="499" priority="596">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="344" priority="595" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="595" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="343" priority="594">
+    <cfRule type="expression" dxfId="497" priority="594">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="342" priority="593" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="593" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="341" priority="584">
+    <cfRule type="expression" dxfId="495" priority="584">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="340" priority="583" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="583" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="339" priority="580">
+    <cfRule type="expression" dxfId="493" priority="580">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="338" priority="579" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="579" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="expression" dxfId="337" priority="578">
+    <cfRule type="expression" dxfId="491" priority="578">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="cellIs" dxfId="336" priority="577" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="577" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="335" priority="576">
+    <cfRule type="expression" dxfId="489" priority="576">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="334" priority="575" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="575" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="333" priority="560">
+    <cfRule type="expression" dxfId="487" priority="560">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="332" priority="559" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="559" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="331" priority="558">
+    <cfRule type="expression" dxfId="485" priority="558">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="330" priority="557" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="557" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="329" priority="538">
+    <cfRule type="expression" dxfId="483" priority="538">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="328" priority="537" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="537" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="327" priority="536">
+    <cfRule type="expression" dxfId="481" priority="536">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="326" priority="535" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="535" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="325" priority="534">
+    <cfRule type="expression" dxfId="479" priority="534">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="324" priority="533" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="533" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="323" priority="524">
+    <cfRule type="expression" dxfId="477" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="322" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="321" priority="516">
+    <cfRule type="expression" dxfId="475" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="320" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="319" priority="514">
+    <cfRule type="expression" dxfId="473" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="318" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="expression" dxfId="317" priority="512">
+    <cfRule type="expression" dxfId="471" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="cellIs" dxfId="316" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="315" priority="502">
+    <cfRule type="expression" dxfId="469" priority="502">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="314" priority="501" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="501" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="313" priority="500">
+    <cfRule type="expression" dxfId="467" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="312" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="311" priority="498">
+    <cfRule type="expression" dxfId="465" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="310" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="309" priority="490">
+    <cfRule type="expression" dxfId="463" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="308" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="307" priority="488">
+    <cfRule type="expression" dxfId="461" priority="488">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="306" priority="487" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="487" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="expression" dxfId="305" priority="482">
+    <cfRule type="expression" dxfId="459" priority="482">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="cellIs" dxfId="304" priority="481" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="481" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="303" priority="468">
+    <cfRule type="expression" dxfId="457" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="302" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="301" priority="470">
+    <cfRule type="expression" dxfId="455" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="300" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="299" priority="466">
+    <cfRule type="expression" dxfId="453" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="298" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="297" priority="440">
+    <cfRule type="expression" dxfId="451" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="296" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="295" priority="460">
+    <cfRule type="expression" dxfId="449" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="294" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="293" priority="444">
+    <cfRule type="expression" dxfId="447" priority="444">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="292" priority="443" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="443" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="291" priority="442">
+    <cfRule type="expression" dxfId="445" priority="442">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="290" priority="441" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="441" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="289" priority="438">
+    <cfRule type="expression" dxfId="443" priority="438">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="288" priority="437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="437" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="expression" dxfId="287" priority="436">
+    <cfRule type="expression" dxfId="441" priority="436">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="cellIs" dxfId="286" priority="435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="435" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="285" priority="432">
+    <cfRule type="expression" dxfId="439" priority="432">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="284" priority="431" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="431" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="283" priority="430">
+    <cfRule type="expression" dxfId="437" priority="430">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="282" priority="429" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="429" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="281" priority="428">
+    <cfRule type="expression" dxfId="435" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="280" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="279" priority="420">
+    <cfRule type="expression" dxfId="433" priority="420">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="278" priority="419" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="419" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="277" priority="378">
+    <cfRule type="expression" dxfId="431" priority="378">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="276" priority="377" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="377" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="275" priority="358">
+    <cfRule type="expression" dxfId="429" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="274" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="273" priority="340">
+    <cfRule type="expression" dxfId="427" priority="340">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="272" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="339" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="271" priority="338">
+    <cfRule type="expression" dxfId="425" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="270" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="269" priority="330">
+    <cfRule type="expression" dxfId="423" priority="330">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="268" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="329" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="expression" dxfId="267" priority="236">
+    <cfRule type="expression" dxfId="421" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="266" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="265" priority="234">
+    <cfRule type="expression" dxfId="419" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="264" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="263" priority="228">
+    <cfRule type="expression" dxfId="417" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="262" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="261" priority="226">
+    <cfRule type="expression" dxfId="415" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="260" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="259" priority="224">
+    <cfRule type="expression" dxfId="413" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="258" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="257" priority="222">
+    <cfRule type="expression" dxfId="411" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="256" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="255" priority="220">
+    <cfRule type="expression" dxfId="409" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="254" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="253" priority="216">
+    <cfRule type="expression" dxfId="407" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="252" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="expression" dxfId="251" priority="214">
+    <cfRule type="expression" dxfId="405" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="cellIs" dxfId="250" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="expression" dxfId="249" priority="208">
+    <cfRule type="expression" dxfId="403" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="cellIs" dxfId="248" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="expression" dxfId="247" priority="206">
+    <cfRule type="expression" dxfId="401" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="cellIs" dxfId="246" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="expression" dxfId="245" priority="204">
+    <cfRule type="expression" dxfId="399" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="cellIs" dxfId="244" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="expression" dxfId="243" priority="202">
+    <cfRule type="expression" dxfId="397" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="cellIs" dxfId="242" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="241" priority="200">
+    <cfRule type="expression" dxfId="395" priority="200">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="240" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="199" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="239" priority="198">
+    <cfRule type="expression" dxfId="393" priority="198">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="238" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="197" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="expression" dxfId="237" priority="196">
+    <cfRule type="expression" dxfId="391" priority="196">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="236" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="195" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="235" priority="194">
+    <cfRule type="expression" dxfId="389" priority="194">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="cellIs" dxfId="234" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="193" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="233" priority="192">
+    <cfRule type="expression" dxfId="387" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="232" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="231" priority="190">
+    <cfRule type="expression" dxfId="385" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="230" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="expression" dxfId="229" priority="188">
+    <cfRule type="expression" dxfId="383" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="228" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="227" priority="186">
+    <cfRule type="expression" dxfId="381" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="226" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="225" priority="184">
+    <cfRule type="expression" dxfId="379" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="224" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="223" priority="182">
+    <cfRule type="expression" dxfId="377" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="222" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="expression" dxfId="221" priority="180">
+    <cfRule type="expression" dxfId="375" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="cellIs" dxfId="220" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="expression" dxfId="219" priority="178">
+    <cfRule type="expression" dxfId="373" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="218" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="expression" dxfId="217" priority="176">
+    <cfRule type="expression" dxfId="371" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="cellIs" dxfId="216" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="expression" dxfId="215" priority="174">
+    <cfRule type="expression" dxfId="369" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="cellIs" dxfId="214" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="213" priority="172">
+    <cfRule type="expression" dxfId="367" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="212" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="211" priority="170">
+    <cfRule type="expression" dxfId="365" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="210" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="209" priority="168">
+    <cfRule type="expression" dxfId="363" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="208" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="207" priority="166">
+    <cfRule type="expression" dxfId="361" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="206" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="205" priority="164">
+    <cfRule type="expression" dxfId="359" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="204" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="203" priority="162">
+    <cfRule type="expression" dxfId="357" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="202" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="201" priority="160">
+    <cfRule type="expression" dxfId="355" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="200" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="199" priority="158">
+    <cfRule type="expression" dxfId="353" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="cellIs" dxfId="198" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="197" priority="156">
+    <cfRule type="expression" dxfId="351" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="196" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="expression" dxfId="195" priority="154">
+    <cfRule type="expression" dxfId="349" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="cellIs" dxfId="194" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="expression" dxfId="193" priority="152">
+    <cfRule type="expression" dxfId="347" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="cellIs" dxfId="192" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="expression" dxfId="191" priority="150">
+    <cfRule type="expression" dxfId="345" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="cellIs" dxfId="190" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="expression" dxfId="189" priority="148">
+    <cfRule type="expression" dxfId="343" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="cellIs" dxfId="188" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="187" priority="146">
+    <cfRule type="expression" dxfId="341" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="186" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="185" priority="144">
+    <cfRule type="expression" dxfId="339" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="184" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="183" priority="142">
+    <cfRule type="expression" dxfId="337" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="182" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="181" priority="140">
+    <cfRule type="expression" dxfId="335" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="180" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="179" priority="138">
+    <cfRule type="expression" dxfId="333" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="178" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="177" priority="136">
+    <cfRule type="expression" dxfId="331" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="176" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="expression" dxfId="175" priority="134">
+    <cfRule type="expression" dxfId="329" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="cellIs" dxfId="174" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="expression" dxfId="173" priority="132">
+    <cfRule type="expression" dxfId="327" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="cellIs" dxfId="172" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" dxfId="171" priority="130">
+    <cfRule type="expression" dxfId="325" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="170" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="169" priority="128">
+    <cfRule type="expression" dxfId="323" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="168" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="167" priority="126">
+    <cfRule type="expression" dxfId="321" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="166" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="165" priority="124">
+    <cfRule type="expression" dxfId="319" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="164" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="163" priority="122">
+    <cfRule type="expression" dxfId="317" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="162" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="161" priority="120">
+    <cfRule type="expression" dxfId="315" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="160" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="159" priority="118">
+    <cfRule type="expression" dxfId="313" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="158" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="157" priority="116">
+    <cfRule type="expression" dxfId="311" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="156" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="155" priority="114">
+    <cfRule type="expression" dxfId="309" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="154" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="expression" dxfId="153" priority="112">
+    <cfRule type="expression" dxfId="307" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="cellIs" dxfId="152" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="151" priority="96">
+    <cfRule type="expression" dxfId="305" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="150" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="149" priority="110">
+    <cfRule type="expression" dxfId="303" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="148" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="147" priority="108">
+    <cfRule type="expression" dxfId="301" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="146" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="145" priority="106">
+    <cfRule type="expression" dxfId="299" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="144" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="143" priority="104">
+    <cfRule type="expression" dxfId="297" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="142" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="expression" dxfId="141" priority="102">
+    <cfRule type="expression" dxfId="295" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="cellIs" dxfId="140" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="139" priority="100">
+    <cfRule type="expression" dxfId="293" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="138" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="137" priority="98">
+    <cfRule type="expression" dxfId="291" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="136" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="135" priority="94">
+    <cfRule type="expression" dxfId="289" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="134" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="133" priority="92">
+    <cfRule type="expression" dxfId="287" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="132" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="expression" dxfId="131" priority="90">
+    <cfRule type="expression" dxfId="285" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="cellIs" dxfId="130" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="129" priority="88">
+    <cfRule type="expression" dxfId="283" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="128" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="127" priority="86">
+    <cfRule type="expression" dxfId="281" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="126" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="125" priority="84">
+    <cfRule type="expression" dxfId="279" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="124" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="123" priority="82">
+    <cfRule type="expression" dxfId="277" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="122" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="121" priority="80">
+    <cfRule type="expression" dxfId="275" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="120" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="119" priority="78">
+    <cfRule type="expression" dxfId="273" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="118" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="117" priority="74">
+    <cfRule type="expression" dxfId="271" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="116" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="115" priority="76">
+    <cfRule type="expression" dxfId="269" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="114" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="113" priority="72">
+    <cfRule type="expression" dxfId="267" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="112" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="111" priority="64">
+    <cfRule type="expression" dxfId="265" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="110" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="109" priority="70">
+    <cfRule type="expression" dxfId="263" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="108" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="107" priority="68">
+    <cfRule type="expression" dxfId="261" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="106" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="105" priority="66">
+    <cfRule type="expression" dxfId="259" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="104" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="103" priority="62">
+    <cfRule type="expression" dxfId="257" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="102" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="101" priority="60">
+    <cfRule type="expression" dxfId="255" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="100" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="99" priority="58">
+    <cfRule type="expression" dxfId="253" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="98" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="97" priority="56">
+    <cfRule type="expression" dxfId="251" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="96" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="95" priority="54">
+    <cfRule type="expression" dxfId="249" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="94" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="93" priority="52">
+    <cfRule type="expression" dxfId="247" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="92" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="91" priority="50">
+    <cfRule type="expression" dxfId="245" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="90" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="89" priority="48">
+    <cfRule type="expression" dxfId="243" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="88" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="expression" dxfId="87" priority="46">
+    <cfRule type="expression" dxfId="241" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="cellIs" dxfId="86" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="85" priority="44">
+    <cfRule type="expression" dxfId="239" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="cellIs" dxfId="84" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="83" priority="42">
+    <cfRule type="expression" dxfId="237" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="82" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="81" priority="40">
+    <cfRule type="expression" dxfId="235" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="80" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="79" priority="38">
+    <cfRule type="expression" dxfId="233" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="78" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="77" priority="36">
+    <cfRule type="expression" dxfId="231" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="76" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="75" priority="34">
+    <cfRule type="expression" dxfId="229" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="74" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="73" priority="32">
+    <cfRule type="expression" dxfId="227" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="72" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="71" priority="28">
+    <cfRule type="expression" dxfId="225" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="70" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="expression" dxfId="69" priority="26">
+    <cfRule type="expression" dxfId="223" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="cellIs" dxfId="68" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="67" priority="24">
+    <cfRule type="expression" dxfId="221" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="66" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="65" priority="22">
+    <cfRule type="expression" dxfId="219" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="64" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="63" priority="20">
+    <cfRule type="expression" dxfId="217" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="62" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="expression" dxfId="61" priority="18">
+    <cfRule type="expression" dxfId="215" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="60" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="expression" dxfId="59" priority="16">
+    <cfRule type="expression" dxfId="213" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="58" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="57" priority="14">
+    <cfRule type="expression" dxfId="211" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="56" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="209" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="54" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="53" priority="10">
+    <cfRule type="expression" dxfId="207" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="52" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="205" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="50" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="203" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="cellIs" dxfId="48" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="201" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="199" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="44" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39232,52 +40868,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19 L19:R19 D19:J19">
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="197" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19 L19:R19 D19:J19">
-    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="expression" dxfId="41" priority="8">
+    <cfRule type="expression" dxfId="195" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="193" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="37" priority="4">
+    <cfRule type="expression" dxfId="191" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="189" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model/data/floor builder 20170429.xlsx
+++ b/model/data/floor builder 20170429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -2414,1155 +2414,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1192">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1134">
     <dxf>
       <fill>
         <patternFill>
@@ -3588,6 +2440,748 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13452,12 +13046,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1191" priority="2">
+    <cfRule type="expression" dxfId="1133" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1190" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1132" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15185,32 +14779,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 M19:R19 A19:J19">
-    <cfRule type="expression" dxfId="187" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 M19:R19 A19:J19">
-    <cfRule type="cellIs" dxfId="186" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="expression" dxfId="185" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 A1:T18">
-    <cfRule type="cellIs" dxfId="184" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="expression" dxfId="183" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="cellIs" dxfId="182" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16938,52 +16532,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 L19:P19 E19:J19">
-    <cfRule type="expression" dxfId="181" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 L19:P19 E19:J19">
-    <cfRule type="cellIs" dxfId="180" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="expression" dxfId="179" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19 F20:P20 Q19:S19 B19:D19 A1:T18">
-    <cfRule type="cellIs" dxfId="178" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="expression" dxfId="177" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:D20 A19">
-    <cfRule type="cellIs" dxfId="176" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="expression" dxfId="175" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:T20 T19">
-    <cfRule type="cellIs" dxfId="174" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="173" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="172" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18701,22 +18295,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 F19:J19 L19:M19">
-    <cfRule type="expression" dxfId="171" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 F19:J19 L19:M19">
-    <cfRule type="cellIs" dxfId="170" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="expression" dxfId="169" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:T20 K19 N19:T19 F14:T18 A14:E20 A1:T13">
-    <cfRule type="cellIs" dxfId="168" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21130,22 +20724,22 @@
     <sortCondition ref="B2:B67"/>
   </sortState>
   <conditionalFormatting sqref="D1:D31 D33:D1048576">
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 K33:K77">
-    <cfRule type="cellIs" dxfId="166" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="165" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="164" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22873,12 +22467,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1189" priority="2">
+    <cfRule type="expression" dxfId="1131" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="1188" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24606,22 +24200,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1187" priority="4">
+    <cfRule type="expression" dxfId="1129" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1186" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1128" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="expression" dxfId="1185" priority="2">
+    <cfRule type="expression" dxfId="1127" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="cellIs" dxfId="1184" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26349,32 +25943,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="1183" priority="6">
+    <cfRule type="expression" dxfId="1125" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="1182" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1124" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="expression" dxfId="1181" priority="4">
+    <cfRule type="expression" dxfId="1123" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T18">
-    <cfRule type="cellIs" dxfId="1180" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="expression" dxfId="1179" priority="2">
+    <cfRule type="expression" dxfId="1121" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:T20">
-    <cfRule type="cellIs" dxfId="1178" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1120" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26387,8 +25981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26722,7 +26316,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -26767,11 +26361,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">|                 1 </v>
+        <v xml:space="preserve">|      ^          1 </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'|                 1 ',</v>
+        <v>'|      ^          1 ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26815,7 +26409,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>6</v>
@@ -26842,11 +26436,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">             $      </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'             $      ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -27010,7 +26604,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>6</v>
@@ -27067,11 +26661,11 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">W                 E </v>
+        <v xml:space="preserve">W  $              E </v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'W                 E ',</v>
+        <v>'W  $              E ',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -27418,7 +27012,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>6</v>
@@ -27442,11 +27036,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">              ^     </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'              ^     ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -28102,22 +27696,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1177" priority="4">
+    <cfRule type="expression" dxfId="1119" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1176" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="expression" dxfId="1175" priority="2">
+    <cfRule type="expression" dxfId="1117" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T18">
-    <cfRule type="cellIs" dxfId="1174" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1116" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28130,7 +27724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -29993,1842 +29587,1842 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D11 D17:O17 D9 D7:E7 D13:E13 D15:E15 O5:P6 G11:P11 G9:P9 M15:P15 G15:H15 G13:P13 G7:P7 F6:F15 D5:N5">
-    <cfRule type="expression" dxfId="1173" priority="454">
+    <cfRule type="expression" dxfId="1115" priority="454">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 D11 D17:O17 D9 D7:E7 D13:E13 D15:E15 O5:P6 G11:P11 G9:P9 M15:P15 G15:H15 G13:P13 G7:P7 F6:F15 D5:N5">
-    <cfRule type="cellIs" dxfId="1172" priority="453" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="453" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="expression" dxfId="1171" priority="452">
+    <cfRule type="expression" dxfId="1113" priority="452">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17">
-    <cfRule type="cellIs" dxfId="1170" priority="451" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="451" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="expression" dxfId="1169" priority="442">
+    <cfRule type="expression" dxfId="1111" priority="442">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:R20 K19 T19:T20">
-    <cfRule type="cellIs" dxfId="1168" priority="441" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="441" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="1167" priority="448">
+    <cfRule type="expression" dxfId="1109" priority="448">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="1166" priority="447" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1108" priority="447" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="expression" dxfId="1165" priority="446">
+    <cfRule type="expression" dxfId="1107" priority="446">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T18">
-    <cfRule type="cellIs" dxfId="1164" priority="445" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="445" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="1163" priority="444">
+    <cfRule type="expression" dxfId="1105" priority="444">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="1162" priority="443" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1104" priority="443" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="1161" priority="312">
+    <cfRule type="expression" dxfId="1103" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="1160" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1159" priority="440">
+    <cfRule type="expression" dxfId="1101" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="1158" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1100" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="expression" dxfId="1157" priority="438">
+    <cfRule type="expression" dxfId="1099" priority="438">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 B1:B18">
-    <cfRule type="cellIs" dxfId="1156" priority="437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="437" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="expression" dxfId="1155" priority="434">
+    <cfRule type="expression" dxfId="1097" priority="434">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="cellIs" dxfId="1154" priority="433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1096" priority="433" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="1153" priority="426">
+    <cfRule type="expression" dxfId="1095" priority="426">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="1152" priority="425" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="425" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="1151" priority="424">
+    <cfRule type="expression" dxfId="1093" priority="424">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="1150" priority="423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="423" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="1149" priority="422">
+    <cfRule type="expression" dxfId="1091" priority="422">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="1148" priority="421" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="421" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="1145" priority="416">
+    <cfRule type="expression" dxfId="1089" priority="416">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="1144" priority="415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1088" priority="415" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="1143" priority="412">
+    <cfRule type="expression" dxfId="1087" priority="412">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="1142" priority="411" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="411" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="1141" priority="410">
+    <cfRule type="expression" dxfId="1085" priority="410">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="1140" priority="409" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1084" priority="409" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="1139" priority="408">
+    <cfRule type="expression" dxfId="1083" priority="408">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="1138" priority="407" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="407" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1137" priority="404">
+    <cfRule type="expression" dxfId="1081" priority="404">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="1136" priority="403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1080" priority="403" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1135" priority="402">
+    <cfRule type="expression" dxfId="1079" priority="402">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="1134" priority="401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="401" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="1131" priority="398">
+    <cfRule type="expression" dxfId="1077" priority="398">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="1130" priority="397" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1076" priority="397" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1129" priority="396">
+    <cfRule type="expression" dxfId="1075" priority="396">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="1128" priority="395" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="395" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="1127" priority="394">
+    <cfRule type="expression" dxfId="1073" priority="394">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="1126" priority="393" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1072" priority="393" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="1125" priority="390">
+    <cfRule type="expression" dxfId="1071" priority="390">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="1124" priority="389" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="389" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="1123" priority="386">
+    <cfRule type="expression" dxfId="1069" priority="386">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="1122" priority="385" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1068" priority="385" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="1121" priority="384">
+    <cfRule type="expression" dxfId="1067" priority="384">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="1120" priority="383" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1066" priority="383" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="1119" priority="382">
+    <cfRule type="expression" dxfId="1065" priority="382">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="1118" priority="381" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1064" priority="381" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="1117" priority="380">
+    <cfRule type="expression" dxfId="1063" priority="380">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="1116" priority="379" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="379" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="1115" priority="378">
+    <cfRule type="expression" dxfId="1061" priority="378">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="1114" priority="377" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1060" priority="377" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="1113" priority="376">
+    <cfRule type="expression" dxfId="1059" priority="376">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="1112" priority="375" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="375" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="1111" priority="374">
+    <cfRule type="expression" dxfId="1057" priority="374">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="1110" priority="373" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1056" priority="373" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="1109" priority="372">
+    <cfRule type="expression" dxfId="1055" priority="372">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="1108" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1054" priority="371" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="1107" priority="370">
+    <cfRule type="expression" dxfId="1053" priority="370">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="1106" priority="369" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="369" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="1105" priority="368">
+    <cfRule type="expression" dxfId="1051" priority="368">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="1104" priority="367" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1050" priority="367" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1099" priority="352">
+    <cfRule type="expression" dxfId="1049" priority="352">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1098" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1048" priority="351" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1097" priority="350">
+    <cfRule type="expression" dxfId="1047" priority="350">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="1096" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="349" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="1095" priority="348">
+    <cfRule type="expression" dxfId="1045" priority="348">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="1094" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1044" priority="347" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1093" priority="346">
+    <cfRule type="expression" dxfId="1043" priority="346">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="1092" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1042" priority="345" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="1091" priority="344">
+    <cfRule type="expression" dxfId="1041" priority="344">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="1090" priority="343" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1040" priority="343" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="1089" priority="342">
+    <cfRule type="expression" dxfId="1039" priority="342">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="1088" priority="341" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1038" priority="341" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="1087" priority="338">
+    <cfRule type="expression" dxfId="1037" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="1086" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1036" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="1085" priority="336">
+    <cfRule type="expression" dxfId="1035" priority="336">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="1084" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1034" priority="335" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="1083" priority="334">
+    <cfRule type="expression" dxfId="1033" priority="334">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="1082" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1032" priority="333" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="1081" priority="332">
+    <cfRule type="expression" dxfId="1031" priority="332">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="1080" priority="331" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1030" priority="331" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="1079" priority="330">
+    <cfRule type="expression" dxfId="1029" priority="330">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="1078" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1028" priority="329" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="1077" priority="326">
+    <cfRule type="expression" dxfId="1027" priority="326">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="1076" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1026" priority="325" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="1075" priority="324">
+    <cfRule type="expression" dxfId="1025" priority="324">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="1074" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1024" priority="323" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="1073" priority="322">
+    <cfRule type="expression" dxfId="1023" priority="322">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="1072" priority="321" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1022" priority="321" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="1071" priority="320">
+    <cfRule type="expression" dxfId="1021" priority="320">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="1070" priority="319" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="319" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="1069" priority="318">
+    <cfRule type="expression" dxfId="1019" priority="318">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="1068" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="317" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="1065" priority="310">
+    <cfRule type="expression" dxfId="1017" priority="310">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="1064" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="309" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="1063" priority="308">
+    <cfRule type="expression" dxfId="1015" priority="308">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="1062" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="307" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1061" priority="306">
+    <cfRule type="expression" dxfId="1013" priority="306">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="1060" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="305" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="1059" priority="202">
+    <cfRule type="expression" dxfId="1011" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="1058" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="expression" dxfId="1057" priority="304">
+    <cfRule type="expression" dxfId="1009" priority="304">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="cellIs" dxfId="1056" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="303" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="1055" priority="300">
+    <cfRule type="expression" dxfId="1007" priority="300">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="1054" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="299" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1053" priority="298">
+    <cfRule type="expression" dxfId="1005" priority="298">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="1052" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="297" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="1051" priority="296">
+    <cfRule type="expression" dxfId="1003" priority="296">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="1050" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="295" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="1049" priority="294">
+    <cfRule type="expression" dxfId="1001" priority="294">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="1048" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="293" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="1047" priority="290">
+    <cfRule type="expression" dxfId="999" priority="290">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="1046" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="289" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="1045" priority="288">
+    <cfRule type="expression" dxfId="997" priority="288">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="1044" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="287" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1041" priority="284">
+    <cfRule type="expression" dxfId="995" priority="284">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="1040" priority="283" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="283" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="1039" priority="282">
+    <cfRule type="expression" dxfId="993" priority="282">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="1038" priority="281" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="281" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="1037" priority="280">
+    <cfRule type="expression" dxfId="991" priority="280">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="1036" priority="279" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="279" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="1035" priority="278">
+    <cfRule type="expression" dxfId="989" priority="278">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="1034" priority="277" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="277" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="1033" priority="276">
+    <cfRule type="expression" dxfId="987" priority="276">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="1032" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="275" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="1031" priority="274">
+    <cfRule type="expression" dxfId="985" priority="274">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="1030" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="273" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="1029" priority="272">
+    <cfRule type="expression" dxfId="983" priority="272">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="1028" priority="271" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="271" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="1027" priority="270">
+    <cfRule type="expression" dxfId="981" priority="270">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="1026" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="269" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="1025" priority="268">
+    <cfRule type="expression" dxfId="979" priority="268">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="1024" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="267" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="1023" priority="266">
+    <cfRule type="expression" dxfId="977" priority="266">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="1022" priority="265" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="265" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="1021" priority="264">
+    <cfRule type="expression" dxfId="975" priority="264">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="1020" priority="263" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="263" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="1019" priority="262">
+    <cfRule type="expression" dxfId="973" priority="262">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="1018" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="261" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="1017" priority="260">
+    <cfRule type="expression" dxfId="971" priority="260">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="1016" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="259" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="1015" priority="258">
+    <cfRule type="expression" dxfId="969" priority="258">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="1014" priority="257" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="257" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="1013" priority="256">
+    <cfRule type="expression" dxfId="967" priority="256">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="1012" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="255" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="1011" priority="254">
+    <cfRule type="expression" dxfId="965" priority="254">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="1010" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="253" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="1009" priority="252">
+    <cfRule type="expression" dxfId="963" priority="252">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="1008" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="251" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="1007" priority="246">
+    <cfRule type="expression" dxfId="961" priority="246">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="1006" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="245" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="1005" priority="244">
+    <cfRule type="expression" dxfId="959" priority="244">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="1004" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="243" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1001" priority="240">
+    <cfRule type="expression" dxfId="957" priority="240">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1000" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="239" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="999" priority="238">
+    <cfRule type="expression" dxfId="955" priority="238">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="998" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="237" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="997" priority="236">
+    <cfRule type="expression" dxfId="953" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="996" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="995" priority="234">
+    <cfRule type="expression" dxfId="951" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="994" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="993" priority="232">
+    <cfRule type="expression" dxfId="949" priority="232">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="992" priority="231" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="231" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="991" priority="228">
+    <cfRule type="expression" dxfId="947" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="990" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="989" priority="226">
+    <cfRule type="expression" dxfId="945" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="988" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="987" priority="224">
+    <cfRule type="expression" dxfId="943" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="986" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="985" priority="222">
+    <cfRule type="expression" dxfId="941" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="984" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="983" priority="220">
+    <cfRule type="expression" dxfId="939" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="982" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="981" priority="212">
+    <cfRule type="expression" dxfId="937" priority="212">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="980" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="211" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="979" priority="210">
+    <cfRule type="expression" dxfId="935" priority="210">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="978" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="209" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="977" priority="208">
+    <cfRule type="expression" dxfId="933" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="976" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="973" priority="204">
+    <cfRule type="expression" dxfId="931" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="972" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="971" priority="200">
+    <cfRule type="expression" dxfId="929" priority="200">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="970" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="199" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="969" priority="198">
+    <cfRule type="expression" dxfId="927" priority="198">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="968" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="197" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="expression" dxfId="967" priority="196">
+    <cfRule type="expression" dxfId="925" priority="196">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18 A20">
-    <cfRule type="cellIs" dxfId="966" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="195" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S20">
-    <cfRule type="expression" dxfId="965" priority="194">
+    <cfRule type="expression" dxfId="923" priority="194">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S20">
-    <cfRule type="cellIs" dxfId="964" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="193" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:N5">
-    <cfRule type="expression" dxfId="963" priority="192">
+    <cfRule type="expression" dxfId="921" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:N5">
-    <cfRule type="cellIs" dxfId="962" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="953" priority="182">
+    <cfRule type="expression" dxfId="919" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="952" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 E11">
-    <cfRule type="expression" dxfId="951" priority="180">
+    <cfRule type="expression" dxfId="917" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 E11">
-    <cfRule type="cellIs" dxfId="950" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="949" priority="178">
+    <cfRule type="expression" dxfId="915" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="948" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="947" priority="176">
+    <cfRule type="expression" dxfId="913" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="946" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="945" priority="174">
+    <cfRule type="expression" dxfId="911" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="944" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="943" priority="172">
+    <cfRule type="expression" dxfId="909" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="942" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="941" priority="170">
+    <cfRule type="expression" dxfId="907" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="940" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="939" priority="168">
+    <cfRule type="expression" dxfId="905" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="938" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="937" priority="166">
+    <cfRule type="expression" dxfId="903" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="936" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="935" priority="164">
+    <cfRule type="expression" dxfId="901" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="934" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="933" priority="162">
+    <cfRule type="expression" dxfId="899" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="932" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="931" priority="160">
+    <cfRule type="expression" dxfId="897" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="930" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="929" priority="158">
+    <cfRule type="expression" dxfId="895" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="928" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="927" priority="156">
+    <cfRule type="expression" dxfId="893" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="926" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="925" priority="154">
+    <cfRule type="expression" dxfId="891" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="924" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="923" priority="152">
+    <cfRule type="expression" dxfId="889" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="922" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 O11">
-    <cfRule type="expression" dxfId="921" priority="150">
+    <cfRule type="expression" dxfId="887" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9 O11">
-    <cfRule type="cellIs" dxfId="920" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O12">
-    <cfRule type="expression" dxfId="919" priority="148">
+    <cfRule type="expression" dxfId="885" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:O12">
-    <cfRule type="cellIs" dxfId="918" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="917" priority="146">
+    <cfRule type="expression" dxfId="883" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="916" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="915" priority="144">
+    <cfRule type="expression" dxfId="881" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="914" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="913" priority="142">
+    <cfRule type="expression" dxfId="879" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="912" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="expression" dxfId="163" priority="140">
+    <cfRule type="expression" dxfId="877" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 K10 M10">
-    <cfRule type="cellIs" dxfId="162" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="161" priority="138">
+    <cfRule type="expression" dxfId="875" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="160" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="159" priority="136">
+    <cfRule type="expression" dxfId="873" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="158" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="157" priority="134">
+    <cfRule type="expression" dxfId="871" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="156" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="155" priority="132">
+    <cfRule type="expression" dxfId="869" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="154" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="153" priority="130">
+    <cfRule type="expression" dxfId="867" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="152" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="151" priority="128">
+    <cfRule type="expression" dxfId="865" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="150" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="149" priority="126">
+    <cfRule type="expression" dxfId="863" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="148" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="147" priority="124">
+    <cfRule type="expression" dxfId="861" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="cellIs" dxfId="146" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="145" priority="122">
+    <cfRule type="expression" dxfId="859" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="144" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="143" priority="120">
+    <cfRule type="expression" dxfId="857" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="142" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="141" priority="118">
+    <cfRule type="expression" dxfId="855" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="140" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="139" priority="116">
+    <cfRule type="expression" dxfId="853" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="138" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="137" priority="114">
+    <cfRule type="expression" dxfId="851" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="136" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="135" priority="112">
+    <cfRule type="expression" dxfId="849" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="134" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="133" priority="110">
+    <cfRule type="expression" dxfId="847" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="132" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="131" priority="108">
+    <cfRule type="expression" dxfId="845" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="130" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="129" priority="106">
+    <cfRule type="expression" dxfId="843" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="128" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="127" priority="104">
+    <cfRule type="expression" dxfId="841" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="126" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="125" priority="102">
+    <cfRule type="expression" dxfId="839" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="123" priority="100">
+    <cfRule type="expression" dxfId="837" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="122" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="121" priority="98">
+    <cfRule type="expression" dxfId="835" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="120" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="119" priority="96">
+    <cfRule type="expression" dxfId="833" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="118" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="117" priority="94">
+    <cfRule type="expression" dxfId="831" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="116" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="115" priority="92">
+    <cfRule type="expression" dxfId="829" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="114" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10 N10">
-    <cfRule type="expression" dxfId="113" priority="90">
+    <cfRule type="expression" dxfId="827" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10 N10">
-    <cfRule type="cellIs" dxfId="112" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="111" priority="88">
+    <cfRule type="expression" dxfId="825" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="110" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="109" priority="86">
+    <cfRule type="expression" dxfId="823" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="108" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="107" priority="84">
+    <cfRule type="expression" dxfId="821" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="106" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="105" priority="82">
+    <cfRule type="expression" dxfId="819" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="104" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="103" priority="80">
+    <cfRule type="expression" dxfId="817" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="102" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="101" priority="78">
+    <cfRule type="expression" dxfId="815" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="100" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="99" priority="76">
+    <cfRule type="expression" dxfId="813" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="98" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="97" priority="74">
+    <cfRule type="expression" dxfId="811" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="96" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="95" priority="72">
+    <cfRule type="expression" dxfId="809" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="94" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="93" priority="70">
+    <cfRule type="expression" dxfId="807" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="92" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="91" priority="68">
+    <cfRule type="expression" dxfId="805" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="90" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="89" priority="66">
+    <cfRule type="expression" dxfId="803" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="88" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="87" priority="64">
+    <cfRule type="expression" dxfId="801" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="86" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="85" priority="62">
+    <cfRule type="expression" dxfId="799" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="84" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="83" priority="60">
+    <cfRule type="expression" dxfId="797" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="82" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="81" priority="58">
+    <cfRule type="expression" dxfId="795" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="80" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="79" priority="56">
+    <cfRule type="expression" dxfId="793" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="78" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="77" priority="54">
+    <cfRule type="expression" dxfId="791" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="76" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="75" priority="52">
+    <cfRule type="expression" dxfId="789" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="74" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="73" priority="50">
+    <cfRule type="expression" dxfId="787" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="72" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="71" priority="48">
+    <cfRule type="expression" dxfId="785" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="70" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="69" priority="46">
+    <cfRule type="expression" dxfId="783" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="68" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="57" priority="34">
+    <cfRule type="expression" dxfId="781" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="56" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="55" priority="32">
+    <cfRule type="expression" dxfId="779" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="53" priority="30">
+    <cfRule type="expression" dxfId="777" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="52" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="51" priority="28">
+    <cfRule type="expression" dxfId="775" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="50" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="49" priority="26">
+    <cfRule type="expression" dxfId="773" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9 P11">
-    <cfRule type="expression" dxfId="47" priority="24">
+    <cfRule type="expression" dxfId="771" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9 P11">
-    <cfRule type="cellIs" dxfId="46" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P12">
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="769" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P12">
-    <cfRule type="cellIs" dxfId="44" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="43" priority="20">
+    <cfRule type="expression" dxfId="767" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="41" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="765" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="37" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="35" priority="16">
+    <cfRule type="expression" dxfId="763" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="761" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="27" priority="12">
+    <cfRule type="expression" dxfId="759" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="23" priority="10">
+    <cfRule type="expression" dxfId="757" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="755" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="753" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="751" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="749" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33704,1952 +33298,1952 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="expression" dxfId="911" priority="528">
+    <cfRule type="expression" dxfId="747" priority="528">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 E3:O3 Q6:Q8 Q10 Q12 Q14 Q16 C18:O18 O6 P5:P6 D17:O17 F5:O5 M6 N5:N6 F15:P15 P8:P13 G13:K13 M13:P13 N8:N13 H4:J4 F7:P7 F9:P9 F11:P11 E4:E16">
-    <cfRule type="cellIs" dxfId="910" priority="527" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="527" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="expression" dxfId="909" priority="526">
+    <cfRule type="expression" dxfId="745" priority="526">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:R4 C3:D3 P18:R18 R5:R17 C1:R2 P5:P17 D4:D16">
-    <cfRule type="cellIs" dxfId="908" priority="525" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="525" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="expression" dxfId="907" priority="518">
+    <cfRule type="expression" dxfId="743" priority="518">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:T20 S19:T19 K19">
-    <cfRule type="cellIs" dxfId="906" priority="517" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="517" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="905" priority="524">
+    <cfRule type="expression" dxfId="741" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="904" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="expression" dxfId="903" priority="522">
+    <cfRule type="expression" dxfId="739" priority="522">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:T18">
-    <cfRule type="cellIs" dxfId="902" priority="521" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="521" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="expression" dxfId="901" priority="520">
+    <cfRule type="expression" dxfId="737" priority="520">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:J19 L19:R19">
-    <cfRule type="cellIs" dxfId="900" priority="519" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="519" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="899" priority="404">
+    <cfRule type="expression" dxfId="735" priority="404">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="898" priority="403" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="403" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="897" priority="516">
+    <cfRule type="expression" dxfId="733" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="896" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="expression" dxfId="895" priority="514">
+    <cfRule type="expression" dxfId="731" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20 A1:B18">
-    <cfRule type="cellIs" dxfId="894" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="expression" dxfId="893" priority="512">
+    <cfRule type="expression" dxfId="729" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10">
-    <cfRule type="cellIs" dxfId="892" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="891" priority="510">
+    <cfRule type="expression" dxfId="727" priority="510">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="890" priority="509" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="509" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="889" priority="508">
+    <cfRule type="expression" dxfId="725" priority="508">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="888" priority="507" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="507" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="887" priority="506">
+    <cfRule type="expression" dxfId="723" priority="506">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="886" priority="505" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="505" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="885" priority="500">
+    <cfRule type="expression" dxfId="721" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="884" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="883" priority="498">
+    <cfRule type="expression" dxfId="719" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="882" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="expression" dxfId="881" priority="494">
+    <cfRule type="expression" dxfId="717" priority="494">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="880" priority="493" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="493" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="879" priority="490">
+    <cfRule type="expression" dxfId="715" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="878" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="877" priority="486">
+    <cfRule type="expression" dxfId="713" priority="486">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="876" priority="485" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="485" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="875" priority="470">
+    <cfRule type="expression" dxfId="711" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="874" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="873" priority="468">
+    <cfRule type="expression" dxfId="709" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="872" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="871" priority="466">
+    <cfRule type="expression" dxfId="707" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="870" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="869" priority="464">
+    <cfRule type="expression" dxfId="705" priority="464">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="868" priority="463" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="463" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="867" priority="462">
+    <cfRule type="expression" dxfId="703" priority="462">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="866" priority="461" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="461" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="865" priority="460">
+    <cfRule type="expression" dxfId="701" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="864" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="863" priority="446">
+    <cfRule type="expression" dxfId="699" priority="446">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="862" priority="445" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="445" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="expression" dxfId="861" priority="440">
+    <cfRule type="expression" dxfId="697" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C17">
-    <cfRule type="cellIs" dxfId="860" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="859" priority="434">
+    <cfRule type="expression" dxfId="695" priority="434">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="858" priority="433" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="433" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="857" priority="428">
+    <cfRule type="expression" dxfId="693" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="856" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="855" priority="424">
+    <cfRule type="expression" dxfId="691" priority="424">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="854" priority="423" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="423" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="853" priority="418">
+    <cfRule type="expression" dxfId="689" priority="418">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="852" priority="417" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="417" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="851" priority="416">
+    <cfRule type="expression" dxfId="687" priority="416">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="cellIs" dxfId="850" priority="415" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="415" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="849" priority="414">
+    <cfRule type="expression" dxfId="685" priority="414">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="848" priority="413" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="413" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="847" priority="412">
+    <cfRule type="expression" dxfId="683" priority="412">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="846" priority="411" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="411" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="845" priority="410">
+    <cfRule type="expression" dxfId="681" priority="410">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="844" priority="409" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="409" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="843" priority="408">
+    <cfRule type="expression" dxfId="679" priority="408">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="842" priority="407" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="407" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="841" priority="406">
+    <cfRule type="expression" dxfId="677" priority="406">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="840" priority="405" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="405" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="839" priority="402">
+    <cfRule type="expression" dxfId="675" priority="402">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="838" priority="401" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="401" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="837" priority="400">
+    <cfRule type="expression" dxfId="673" priority="400">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="836" priority="399" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="399" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="835" priority="294">
+    <cfRule type="expression" dxfId="671" priority="294">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" dxfId="834" priority="293" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="293" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="expression" dxfId="833" priority="396">
+    <cfRule type="expression" dxfId="669" priority="396">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 I10 M10 K10">
-    <cfRule type="cellIs" dxfId="832" priority="395" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="395" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="831" priority="392">
+    <cfRule type="expression" dxfId="667" priority="392">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="830" priority="391" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="391" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="829" priority="390">
+    <cfRule type="expression" dxfId="665" priority="390">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="828" priority="389" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="389" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="827" priority="388">
+    <cfRule type="expression" dxfId="663" priority="388">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="826" priority="387" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="387" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="825" priority="386">
+    <cfRule type="expression" dxfId="661" priority="386">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="824" priority="385" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="385" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="823" priority="384">
+    <cfRule type="expression" dxfId="659" priority="384">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="822" priority="383" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="383" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="expression" dxfId="821" priority="380">
+    <cfRule type="expression" dxfId="657" priority="380">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:N14">
-    <cfRule type="cellIs" dxfId="820" priority="379" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="379" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="819" priority="374">
+    <cfRule type="expression" dxfId="655" priority="374">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="818" priority="373" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="373" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="817" priority="372">
+    <cfRule type="expression" dxfId="653" priority="372">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="816" priority="371" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="371" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="815" priority="358">
+    <cfRule type="expression" dxfId="651" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="814" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="813" priority="356">
+    <cfRule type="expression" dxfId="649" priority="356">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="812" priority="355" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="355" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="811" priority="354">
+    <cfRule type="expression" dxfId="647" priority="354">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="810" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="353" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="809" priority="352">
+    <cfRule type="expression" dxfId="645" priority="352">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" dxfId="808" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="351" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="807" priority="350">
+    <cfRule type="expression" dxfId="643" priority="350">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="806" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="349" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="805" priority="348">
+    <cfRule type="expression" dxfId="641" priority="348">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="804" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="347" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="803" priority="338">
+    <cfRule type="expression" dxfId="639" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="802" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="801" priority="336">
+    <cfRule type="expression" dxfId="637" priority="336">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="800" priority="335" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="335" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="799" priority="334">
+    <cfRule type="expression" dxfId="635" priority="334">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="798" priority="333" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="333" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="797" priority="326">
+    <cfRule type="expression" dxfId="633" priority="326">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="796" priority="325" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="325" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="795" priority="324">
+    <cfRule type="expression" dxfId="631" priority="324">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="794" priority="323" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="323" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="793" priority="318">
+    <cfRule type="expression" dxfId="629" priority="318">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="792" priority="317" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="317" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="791" priority="316">
+    <cfRule type="expression" dxfId="627" priority="316">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="790" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="315" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="789" priority="314">
+    <cfRule type="expression" dxfId="625" priority="314">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="788" priority="313" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="313" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="787" priority="312">
+    <cfRule type="expression" dxfId="623" priority="312">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="786" priority="311" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="311" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="785" priority="310">
+    <cfRule type="expression" dxfId="621" priority="310">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="784" priority="309" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="309" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="783" priority="308">
+    <cfRule type="expression" dxfId="619" priority="308">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="782" priority="307" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="307" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="781" priority="306">
+    <cfRule type="expression" dxfId="617" priority="306">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="780" priority="305" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="305" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="779" priority="304">
+    <cfRule type="expression" dxfId="615" priority="304">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="778" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="303" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="777" priority="302">
+    <cfRule type="expression" dxfId="613" priority="302">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="cellIs" dxfId="776" priority="301" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="301" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="775" priority="300">
+    <cfRule type="expression" dxfId="611" priority="300">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="774" priority="299" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="299" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="773" priority="298">
+    <cfRule type="expression" dxfId="609" priority="298">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="772" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="297" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="771" priority="296">
+    <cfRule type="expression" dxfId="607" priority="296">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="770" priority="295" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="295" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="769" priority="292">
+    <cfRule type="expression" dxfId="605" priority="292">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="cellIs" dxfId="768" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="291" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="expression" dxfId="767" priority="290">
+    <cfRule type="expression" dxfId="603" priority="290">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N13 N15:N16">
-    <cfRule type="cellIs" dxfId="766" priority="289" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="289" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="765" priority="252">
+    <cfRule type="expression" dxfId="601" priority="252">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="764" priority="251" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="251" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="763" priority="288">
+    <cfRule type="expression" dxfId="599" priority="288">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="762" priority="287" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="287" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="761" priority="276">
+    <cfRule type="expression" dxfId="597" priority="276">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="760" priority="275" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="275" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="759" priority="268">
+    <cfRule type="expression" dxfId="595" priority="268">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="758" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="267" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="757" priority="262">
+    <cfRule type="expression" dxfId="593" priority="262">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="756" priority="261" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="261" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="755" priority="260">
+    <cfRule type="expression" dxfId="591" priority="260">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="754" priority="259" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="259" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="753" priority="254">
+    <cfRule type="expression" dxfId="589" priority="254">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="752" priority="253" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="253" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="751" priority="250">
+    <cfRule type="expression" dxfId="587" priority="250">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="750" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="249" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="749" priority="212">
+    <cfRule type="expression" dxfId="585" priority="212">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="748" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="211" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="747" priority="248">
+    <cfRule type="expression" dxfId="583" priority="248">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="746" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="247" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="745" priority="246">
+    <cfRule type="expression" dxfId="581" priority="246">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="744" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="245" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="743" priority="236">
+    <cfRule type="expression" dxfId="579" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="742" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="741" priority="234">
+    <cfRule type="expression" dxfId="577" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="740" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="739" priority="228">
+    <cfRule type="expression" dxfId="575" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="738" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="737" priority="226">
+    <cfRule type="expression" dxfId="573" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="736" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="735" priority="224">
+    <cfRule type="expression" dxfId="571" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="734" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="733" priority="222">
+    <cfRule type="expression" dxfId="569" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="732" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="731" priority="220">
+    <cfRule type="expression" dxfId="567" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="730" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="729" priority="218">
+    <cfRule type="expression" dxfId="565" priority="218">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="728" priority="217" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="217" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="727" priority="216">
+    <cfRule type="expression" dxfId="563" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="726" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="725" priority="214">
+    <cfRule type="expression" dxfId="561" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="724" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="723" priority="210">
+    <cfRule type="expression" dxfId="559" priority="210">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="722" priority="209" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="209" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="expression" dxfId="721" priority="208">
+    <cfRule type="expression" dxfId="557" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F13 F11">
-    <cfRule type="cellIs" dxfId="720" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="719" priority="206">
+    <cfRule type="expression" dxfId="555" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="718" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="717" priority="204">
+    <cfRule type="expression" dxfId="553" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="716" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="715" priority="202">
+    <cfRule type="expression" dxfId="551" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="714" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="expression" dxfId="713" priority="192">
+    <cfRule type="expression" dxfId="549" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9 L13 L11">
-    <cfRule type="cellIs" dxfId="712" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="711" priority="190">
+    <cfRule type="expression" dxfId="547" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="710" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="709" priority="188">
+    <cfRule type="expression" dxfId="545" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="708" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="707" priority="186">
+    <cfRule type="expression" dxfId="543" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="706" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="expression" dxfId="705" priority="184">
+    <cfRule type="expression" dxfId="541" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L13">
-    <cfRule type="cellIs" dxfId="704" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="703" priority="182">
+    <cfRule type="expression" dxfId="539" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="702" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="701" priority="180">
+    <cfRule type="expression" dxfId="537" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="700" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="699" priority="178">
+    <cfRule type="expression" dxfId="535" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="698" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="697" priority="176">
+    <cfRule type="expression" dxfId="533" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="696" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="695" priority="174">
+    <cfRule type="expression" dxfId="531" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="694" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="693" priority="172">
+    <cfRule type="expression" dxfId="529" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="692" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="691" priority="170">
+    <cfRule type="expression" dxfId="527" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="690" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="689" priority="168">
+    <cfRule type="expression" dxfId="525" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="688" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="687" priority="166">
+    <cfRule type="expression" dxfId="523" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="686" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="685" priority="164">
+    <cfRule type="expression" dxfId="521" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="684" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="683" priority="162">
+    <cfRule type="expression" dxfId="519" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="682" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="681" priority="160">
+    <cfRule type="expression" dxfId="517" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="680" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="679" priority="158">
+    <cfRule type="expression" dxfId="515" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="678" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="677" priority="156">
+    <cfRule type="expression" dxfId="513" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="676" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="675" priority="154">
+    <cfRule type="expression" dxfId="511" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="674" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="673" priority="152">
+    <cfRule type="expression" dxfId="509" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="672" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="671" priority="150">
+    <cfRule type="expression" dxfId="507" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="670" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="669" priority="148">
+    <cfRule type="expression" dxfId="505" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="668" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="667" priority="146">
+    <cfRule type="expression" dxfId="503" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="666" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="665" priority="144">
+    <cfRule type="expression" dxfId="501" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="664" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="663" priority="142">
+    <cfRule type="expression" dxfId="499" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="662" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="661" priority="140">
+    <cfRule type="expression" dxfId="497" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="660" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="659" priority="138">
+    <cfRule type="expression" dxfId="495" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="658" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="657" priority="136">
+    <cfRule type="expression" dxfId="493" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="656" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="655" priority="134">
+    <cfRule type="expression" dxfId="491" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="654" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="653" priority="132">
+    <cfRule type="expression" dxfId="489" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="652" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="expression" dxfId="651" priority="130">
+    <cfRule type="expression" dxfId="487" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 K10">
-    <cfRule type="cellIs" dxfId="650" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="649" priority="128">
+    <cfRule type="expression" dxfId="485" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="648" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="647" priority="126">
+    <cfRule type="expression" dxfId="483" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="646" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="645" priority="124">
+    <cfRule type="expression" dxfId="481" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="644" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="643" priority="122">
+    <cfRule type="expression" dxfId="479" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="642" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="641" priority="120">
+    <cfRule type="expression" dxfId="477" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="640" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="639" priority="118">
+    <cfRule type="expression" dxfId="475" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="638" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="637" priority="116">
+    <cfRule type="expression" dxfId="473" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="636" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="expression" dxfId="635" priority="114">
+    <cfRule type="expression" dxfId="471" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 J10 L10">
-    <cfRule type="cellIs" dxfId="634" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="633" priority="112">
+    <cfRule type="expression" dxfId="469" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="632" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="631" priority="110">
+    <cfRule type="expression" dxfId="467" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="630" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="629" priority="108">
+    <cfRule type="expression" dxfId="465" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="628" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="627" priority="106">
+    <cfRule type="expression" dxfId="463" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="626" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="625" priority="104">
+    <cfRule type="expression" dxfId="461" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="624" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="623" priority="102">
+    <cfRule type="expression" dxfId="459" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="622" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="621" priority="100">
+    <cfRule type="expression" dxfId="457" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="620" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="619" priority="98">
+    <cfRule type="expression" dxfId="455" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="618" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="617" priority="96">
+    <cfRule type="expression" dxfId="453" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="616" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="615" priority="94">
+    <cfRule type="expression" dxfId="451" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="614" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="613" priority="92">
+    <cfRule type="expression" dxfId="449" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="612" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="611" priority="90">
+    <cfRule type="expression" dxfId="447" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="610" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="609" priority="88">
+    <cfRule type="expression" dxfId="445" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="608" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="607" priority="86">
+    <cfRule type="expression" dxfId="443" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="606" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="605" priority="84">
+    <cfRule type="expression" dxfId="441" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="604" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="603" priority="82">
+    <cfRule type="expression" dxfId="439" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="602" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="601" priority="80">
+    <cfRule type="expression" dxfId="437" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="600" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="599" priority="78">
+    <cfRule type="expression" dxfId="435" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="598" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="597" priority="76">
+    <cfRule type="expression" dxfId="433" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="596" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="595" priority="74">
+    <cfRule type="expression" dxfId="431" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="594" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="593" priority="72">
+    <cfRule type="expression" dxfId="429" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="592" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="expression" dxfId="591" priority="70">
+    <cfRule type="expression" dxfId="427" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9 G11">
-    <cfRule type="cellIs" dxfId="590" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="589" priority="68">
+    <cfRule type="expression" dxfId="425" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="588" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="587" priority="66">
+    <cfRule type="expression" dxfId="423" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="586" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="585" priority="64">
+    <cfRule type="expression" dxfId="421" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="584" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="expression" dxfId="583" priority="62">
+    <cfRule type="expression" dxfId="419" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M11">
-    <cfRule type="cellIs" dxfId="582" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="581" priority="60">
+    <cfRule type="expression" dxfId="417" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="580" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="579" priority="58">
+    <cfRule type="expression" dxfId="415" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="578" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="577" priority="56">
+    <cfRule type="expression" dxfId="413" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="576" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="expression" dxfId="575" priority="54">
+    <cfRule type="expression" dxfId="411" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="cellIs" dxfId="574" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="573" priority="52">
+    <cfRule type="expression" dxfId="409" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="572" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="571" priority="50">
+    <cfRule type="expression" dxfId="407" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="570" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="569" priority="48">
+    <cfRule type="expression" dxfId="405" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="568" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="567" priority="46">
+    <cfRule type="expression" dxfId="403" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="566" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="565" priority="44">
+    <cfRule type="expression" dxfId="401" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="564" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="563" priority="42">
+    <cfRule type="expression" dxfId="399" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="562" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="561" priority="40">
+    <cfRule type="expression" dxfId="397" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="560" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="559" priority="38">
+    <cfRule type="expression" dxfId="395" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="558" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="557" priority="36">
+    <cfRule type="expression" dxfId="393" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="556" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="555" priority="34">
+    <cfRule type="expression" dxfId="391" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="554" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="553" priority="32">
+    <cfRule type="expression" dxfId="389" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="552" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="551" priority="30">
+    <cfRule type="expression" dxfId="387" priority="30">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="550" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="29" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="549" priority="28">
+    <cfRule type="expression" dxfId="385" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="548" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="547" priority="26">
+    <cfRule type="expression" dxfId="383" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="546" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="545" priority="24">
+    <cfRule type="expression" dxfId="381" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="544" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="543" priority="22">
+    <cfRule type="expression" dxfId="379" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="542" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="541" priority="20">
+    <cfRule type="expression" dxfId="377" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="540" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="539" priority="18">
+    <cfRule type="expression" dxfId="375" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="538" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="537" priority="16">
+    <cfRule type="expression" dxfId="373" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="536" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="535" priority="14">
+    <cfRule type="expression" dxfId="371" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="534" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="533" priority="12">
+    <cfRule type="expression" dxfId="369" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="532" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="531" priority="10">
+    <cfRule type="expression" dxfId="367" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="530" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="529" priority="8">
+    <cfRule type="expression" dxfId="365" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="528" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="527" priority="6">
+    <cfRule type="expression" dxfId="363" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="526" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="525" priority="4">
+    <cfRule type="expression" dxfId="361" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="524" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="523" priority="2">
+    <cfRule type="expression" dxfId="359" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="522" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37525,1622 +37119,1622 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U1:Y21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="expression" dxfId="521" priority="626">
+    <cfRule type="expression" dxfId="357" priority="626">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U1:Z21 F3 Q7:Q8 Q10 F5 P8:P11 H4:J4 E8:E11 F9:O9 F11:O11 H6:J6 H8:J8 H10:J10 F7:P7 H5:N5 H3:N3 E13:E14 E15:L16 D18:D19 D17:L18 G13:K14 N15:N19 M13:P14 E12:P12 F19">
-    <cfRule type="cellIs" dxfId="520" priority="625" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="625" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="expression" dxfId="519" priority="624">
+    <cfRule type="expression" dxfId="355" priority="624">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:N1 F2 H2:N2 D8:D17 R7:R14 P7:P14">
-    <cfRule type="cellIs" dxfId="518" priority="623" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="623" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="expression" dxfId="517" priority="616">
+    <cfRule type="expression" dxfId="353" priority="616">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19:T20 F20:O20">
-    <cfRule type="cellIs" dxfId="516" priority="615" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="615" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="515" priority="622">
+    <cfRule type="expression" dxfId="351" priority="622">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="514" priority="621" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="621" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="expression" dxfId="513" priority="620">
+    <cfRule type="expression" dxfId="349" priority="620">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T18 T1:T6 S13:S14 S7:T13">
-    <cfRule type="cellIs" dxfId="512" priority="619" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="619" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="expression" dxfId="511" priority="618">
+    <cfRule type="expression" dxfId="347" priority="618">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 N19:R19">
-    <cfRule type="cellIs" dxfId="510" priority="617" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="617" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="509" priority="556">
+    <cfRule type="expression" dxfId="345" priority="556">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="508" priority="555" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="555" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="expression" dxfId="507" priority="612">
+    <cfRule type="expression" dxfId="343" priority="612">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7 A8:B19">
-    <cfRule type="cellIs" dxfId="506" priority="611" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="611" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="505" priority="608">
+    <cfRule type="expression" dxfId="341" priority="608">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="504" priority="607" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="607" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="expression" dxfId="503" priority="606">
+    <cfRule type="expression" dxfId="339" priority="606">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q12">
-    <cfRule type="cellIs" dxfId="502" priority="605" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="605" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="501" priority="604">
+    <cfRule type="expression" dxfId="337" priority="604">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="500" priority="603" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="603" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="499" priority="596">
+    <cfRule type="expression" dxfId="335" priority="596">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="498" priority="595" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="595" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="497" priority="594">
+    <cfRule type="expression" dxfId="333" priority="594">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="496" priority="593" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="593" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="495" priority="584">
+    <cfRule type="expression" dxfId="331" priority="584">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="494" priority="583" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="583" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="493" priority="580">
+    <cfRule type="expression" dxfId="329" priority="580">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="492" priority="579" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="579" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="expression" dxfId="491" priority="578">
+    <cfRule type="expression" dxfId="327" priority="578">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C17 C8:C13">
-    <cfRule type="cellIs" dxfId="490" priority="577" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="577" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="489" priority="576">
+    <cfRule type="expression" dxfId="325" priority="576">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="488" priority="575" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="575" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="487" priority="560">
+    <cfRule type="expression" dxfId="323" priority="560">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="486" priority="559" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="559" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="485" priority="558">
+    <cfRule type="expression" dxfId="321" priority="558">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="484" priority="557" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="557" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="expression" dxfId="483" priority="538">
+    <cfRule type="expression" dxfId="319" priority="538">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:L14 N14">
-    <cfRule type="cellIs" dxfId="482" priority="537" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="537" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="expression" dxfId="481" priority="536">
+    <cfRule type="expression" dxfId="317" priority="536">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:L16">
-    <cfRule type="cellIs" dxfId="480" priority="535" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="535" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="479" priority="534">
+    <cfRule type="expression" dxfId="315" priority="534">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="478" priority="533" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="533" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="477" priority="524">
+    <cfRule type="expression" dxfId="313" priority="524">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="476" priority="523" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="523" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="475" priority="516">
+    <cfRule type="expression" dxfId="311" priority="516">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="474" priority="515" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="515" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="473" priority="514">
+    <cfRule type="expression" dxfId="309" priority="514">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="472" priority="513" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="513" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="expression" dxfId="471" priority="512">
+    <cfRule type="expression" dxfId="307" priority="512">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 G10">
-    <cfRule type="cellIs" dxfId="470" priority="511" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="511" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="469" priority="502">
+    <cfRule type="expression" dxfId="305" priority="502">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="468" priority="501" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="501" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="467" priority="500">
+    <cfRule type="expression" dxfId="303" priority="500">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="466" priority="499" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="499" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="465" priority="498">
+    <cfRule type="expression" dxfId="301" priority="498">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="464" priority="497" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="497" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="463" priority="490">
+    <cfRule type="expression" dxfId="299" priority="490">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="462" priority="489" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="489" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="461" priority="488">
+    <cfRule type="expression" dxfId="297" priority="488">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="460" priority="487" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="487" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="expression" dxfId="459" priority="482">
+    <cfRule type="expression" dxfId="295" priority="482">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N17">
-    <cfRule type="cellIs" dxfId="458" priority="481" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="481" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="457" priority="468">
+    <cfRule type="expression" dxfId="293" priority="468">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="456" priority="467" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="467" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="455" priority="470">
+    <cfRule type="expression" dxfId="291" priority="470">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="454" priority="469" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="469" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="453" priority="466">
+    <cfRule type="expression" dxfId="289" priority="466">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="452" priority="465" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="465" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="expression" dxfId="451" priority="440">
+    <cfRule type="expression" dxfId="287" priority="440">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4 M6 M8 M10">
-    <cfRule type="cellIs" dxfId="450" priority="439" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="439" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="449" priority="460">
+    <cfRule type="expression" dxfId="285" priority="460">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="448" priority="459" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="459" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="expression" dxfId="447" priority="444">
+    <cfRule type="expression" dxfId="283" priority="444">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4 K6 K8 K10">
-    <cfRule type="cellIs" dxfId="446" priority="443" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="443" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="expression" dxfId="445" priority="442">
+    <cfRule type="expression" dxfId="281" priority="442">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L8 L10">
-    <cfRule type="cellIs" dxfId="444" priority="441" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="441" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="expression" dxfId="443" priority="438">
+    <cfRule type="expression" dxfId="279" priority="438">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N8 N10">
-    <cfRule type="cellIs" dxfId="442" priority="437" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="437" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="expression" dxfId="441" priority="436">
+    <cfRule type="expression" dxfId="277" priority="436">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 F11:F13">
-    <cfRule type="cellIs" dxfId="440" priority="435" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="435" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="439" priority="432">
+    <cfRule type="expression" dxfId="275" priority="432">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="438" priority="431" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="431" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="437" priority="430">
+    <cfRule type="expression" dxfId="273" priority="430">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="436" priority="429" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="429" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="435" priority="428">
+    <cfRule type="expression" dxfId="271" priority="428">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="434" priority="427" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="427" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="433" priority="420">
+    <cfRule type="expression" dxfId="269" priority="420">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="432" priority="419" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="419" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="431" priority="378">
+    <cfRule type="expression" dxfId="267" priority="378">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="430" priority="377" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="377" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="429" priority="358">
+    <cfRule type="expression" dxfId="265" priority="358">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="428" priority="357" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="357" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="427" priority="340">
+    <cfRule type="expression" dxfId="263" priority="340">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="426" priority="339" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="339" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="425" priority="338">
+    <cfRule type="expression" dxfId="261" priority="338">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="424" priority="337" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="337" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="423" priority="330">
+    <cfRule type="expression" dxfId="259" priority="330">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="422" priority="329" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="329" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="expression" dxfId="421" priority="236">
+    <cfRule type="expression" dxfId="257" priority="236">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="420" priority="235" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="235" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="419" priority="234">
+    <cfRule type="expression" dxfId="255" priority="234">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="418" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="233" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="417" priority="228">
+    <cfRule type="expression" dxfId="253" priority="228">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="416" priority="227" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="227" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="415" priority="226">
+    <cfRule type="expression" dxfId="251" priority="226">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="414" priority="225" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="225" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="413" priority="224">
+    <cfRule type="expression" dxfId="249" priority="224">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="412" priority="223" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="223" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="411" priority="222">
+    <cfRule type="expression" dxfId="247" priority="222">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="410" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="221" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="409" priority="220">
+    <cfRule type="expression" dxfId="245" priority="220">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="408" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="219" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="407" priority="216">
+    <cfRule type="expression" dxfId="243" priority="216">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="406" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="215" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="expression" dxfId="405" priority="214">
+    <cfRule type="expression" dxfId="241" priority="214">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="cellIs" dxfId="404" priority="213" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="213" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="expression" dxfId="403" priority="208">
+    <cfRule type="expression" dxfId="239" priority="208">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:S18 S15:S16 R18:R19">
-    <cfRule type="cellIs" dxfId="402" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="207" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="expression" dxfId="401" priority="206">
+    <cfRule type="expression" dxfId="237" priority="206">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R17">
-    <cfRule type="cellIs" dxfId="400" priority="205" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="205" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="expression" dxfId="399" priority="204">
+    <cfRule type="expression" dxfId="235" priority="204">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P19">
-    <cfRule type="cellIs" dxfId="398" priority="203" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="203" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="expression" dxfId="397" priority="202">
+    <cfRule type="expression" dxfId="233" priority="202">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15 Q17">
-    <cfRule type="cellIs" dxfId="396" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="201" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="395" priority="200">
+    <cfRule type="expression" dxfId="231" priority="200">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="394" priority="199" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="199" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="393" priority="198">
+    <cfRule type="expression" dxfId="229" priority="198">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="cellIs" dxfId="392" priority="197" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="197" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="expression" dxfId="391" priority="196">
+    <cfRule type="expression" dxfId="227" priority="196">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="390" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="195" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="389" priority="194">
+    <cfRule type="expression" dxfId="225" priority="194">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="cellIs" dxfId="388" priority="193" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="193" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="387" priority="192">
+    <cfRule type="expression" dxfId="223" priority="192">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18">
-    <cfRule type="cellIs" dxfId="386" priority="191" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="191" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="385" priority="190">
+    <cfRule type="expression" dxfId="221" priority="190">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="cellIs" dxfId="384" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="189" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="expression" dxfId="383" priority="188">
+    <cfRule type="expression" dxfId="219" priority="188">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="382" priority="187" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="187" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="381" priority="186">
+    <cfRule type="expression" dxfId="217" priority="186">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="380" priority="185" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="185" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="379" priority="184">
+    <cfRule type="expression" dxfId="215" priority="184">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="cellIs" dxfId="378" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="183" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="377" priority="182">
+    <cfRule type="expression" dxfId="213" priority="182">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="376" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="181" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="expression" dxfId="375" priority="180">
+    <cfRule type="expression" dxfId="211" priority="180">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4 E2 D5">
-    <cfRule type="cellIs" dxfId="374" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="179" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="expression" dxfId="373" priority="178">
+    <cfRule type="expression" dxfId="209" priority="178">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D3">
-    <cfRule type="cellIs" dxfId="372" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="177" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="expression" dxfId="371" priority="176">
+    <cfRule type="expression" dxfId="207" priority="176">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B5">
-    <cfRule type="cellIs" dxfId="370" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="175" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="expression" dxfId="369" priority="174">
+    <cfRule type="expression" dxfId="205" priority="174">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2 C4">
-    <cfRule type="cellIs" dxfId="368" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="173" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="367" priority="172">
+    <cfRule type="expression" dxfId="203" priority="172">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="366" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="171" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="365" priority="170">
+    <cfRule type="expression" dxfId="201" priority="170">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="364" priority="169" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="169" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="363" priority="168">
+    <cfRule type="expression" dxfId="199" priority="168">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="362" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="167" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="361" priority="166">
+    <cfRule type="expression" dxfId="197" priority="166">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="360" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="165" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="359" priority="164">
+    <cfRule type="expression" dxfId="195" priority="164">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="358" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="163" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="357" priority="162">
+    <cfRule type="expression" dxfId="193" priority="162">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="356" priority="161" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="161" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="355" priority="160">
+    <cfRule type="expression" dxfId="191" priority="160">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="354" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="159" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="353" priority="158">
+    <cfRule type="expression" dxfId="189" priority="158">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="cellIs" dxfId="352" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="157" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="351" priority="156">
+    <cfRule type="expression" dxfId="187" priority="156">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="350" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="155" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="expression" dxfId="349" priority="154">
+    <cfRule type="expression" dxfId="185" priority="154">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S4 S2 R5">
-    <cfRule type="cellIs" dxfId="348" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="153" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="expression" dxfId="347" priority="152">
+    <cfRule type="expression" dxfId="183" priority="152">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R3">
-    <cfRule type="cellIs" dxfId="346" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="151" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="expression" dxfId="345" priority="150">
+    <cfRule type="expression" dxfId="181" priority="150">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P5">
-    <cfRule type="cellIs" dxfId="344" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="149" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="expression" dxfId="343" priority="148">
+    <cfRule type="expression" dxfId="179" priority="148">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2 Q4">
-    <cfRule type="cellIs" dxfId="342" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="147" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="341" priority="146">
+    <cfRule type="expression" dxfId="177" priority="146">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="340" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="145" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="339" priority="144">
+    <cfRule type="expression" dxfId="175" priority="144">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="cellIs" dxfId="338" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="143" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="337" priority="142">
+    <cfRule type="expression" dxfId="173" priority="142">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="336" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="141" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="335" priority="140">
+    <cfRule type="expression" dxfId="171" priority="140">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="cellIs" dxfId="334" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="139" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="333" priority="138">
+    <cfRule type="expression" dxfId="169" priority="138">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="332" priority="137" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="137" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="331" priority="136">
+    <cfRule type="expression" dxfId="167" priority="136">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="330" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="135" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="expression" dxfId="329" priority="134">
+    <cfRule type="expression" dxfId="165" priority="134">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:S6">
-    <cfRule type="cellIs" dxfId="328" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="133" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="expression" dxfId="327" priority="132">
+    <cfRule type="expression" dxfId="163" priority="132">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="cellIs" dxfId="326" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="131" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" dxfId="325" priority="130">
+    <cfRule type="expression" dxfId="161" priority="130">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="cellIs" dxfId="324" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="129" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="323" priority="128">
+    <cfRule type="expression" dxfId="159" priority="128">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="322" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="127" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="321" priority="126">
+    <cfRule type="expression" dxfId="157" priority="126">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="320" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="125" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="319" priority="124">
+    <cfRule type="expression" dxfId="155" priority="124">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="318" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="123" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="317" priority="122">
+    <cfRule type="expression" dxfId="153" priority="122">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="316" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="121" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="315" priority="120">
+    <cfRule type="expression" dxfId="151" priority="120">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="cellIs" dxfId="314" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="119" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="313" priority="118">
+    <cfRule type="expression" dxfId="149" priority="118">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="312" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="117" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="311" priority="116">
+    <cfRule type="expression" dxfId="147" priority="116">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="310" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="115" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="309" priority="114">
+    <cfRule type="expression" dxfId="145" priority="114">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="cellIs" dxfId="308" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="113" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="expression" dxfId="307" priority="112">
+    <cfRule type="expression" dxfId="143" priority="112">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:R20">
-    <cfRule type="cellIs" dxfId="306" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="111" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="305" priority="96">
+    <cfRule type="expression" dxfId="141" priority="96">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="304" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="95" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="303" priority="110">
+    <cfRule type="expression" dxfId="139" priority="110">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="302" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="109" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="301" priority="108">
+    <cfRule type="expression" dxfId="137" priority="108">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="300" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="107" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="299" priority="106">
+    <cfRule type="expression" dxfId="135" priority="106">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="298" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="105" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="297" priority="104">
+    <cfRule type="expression" dxfId="133" priority="104">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="296" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="103" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="expression" dxfId="295" priority="102">
+    <cfRule type="expression" dxfId="131" priority="102">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="cellIs" dxfId="294" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="101" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="293" priority="100">
+    <cfRule type="expression" dxfId="129" priority="100">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="292" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="99" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="291" priority="98">
+    <cfRule type="expression" dxfId="127" priority="98">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="290" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="97" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="289" priority="94">
+    <cfRule type="expression" dxfId="125" priority="94">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="288" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="93" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="expression" dxfId="287" priority="92">
+    <cfRule type="expression" dxfId="123" priority="92">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:L15 N15">
-    <cfRule type="cellIs" dxfId="286" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="91" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="expression" dxfId="285" priority="90">
+    <cfRule type="expression" dxfId="121" priority="90">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:L17">
-    <cfRule type="cellIs" dxfId="284" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="89" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="283" priority="88">
+    <cfRule type="expression" dxfId="119" priority="88">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="282" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="87" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="281" priority="86">
+    <cfRule type="expression" dxfId="117" priority="86">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="280" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="85" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="279" priority="84">
+    <cfRule type="expression" dxfId="115" priority="84">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="278" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="83" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="277" priority="82">
+    <cfRule type="expression" dxfId="113" priority="82">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="276" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="81" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="275" priority="80">
+    <cfRule type="expression" dxfId="111" priority="80">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="274" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="79" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="273" priority="78">
+    <cfRule type="expression" dxfId="109" priority="78">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="272" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="77" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="271" priority="74">
+    <cfRule type="expression" dxfId="107" priority="74">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="270" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="73" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="269" priority="76">
+    <cfRule type="expression" dxfId="105" priority="76">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="268" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="75" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="267" priority="72">
+    <cfRule type="expression" dxfId="103" priority="72">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="266" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="71" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="265" priority="64">
+    <cfRule type="expression" dxfId="101" priority="64">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="264" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="63" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="263" priority="70">
+    <cfRule type="expression" dxfId="99" priority="70">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="cellIs" dxfId="262" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="69" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="261" priority="68">
+    <cfRule type="expression" dxfId="97" priority="68">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="260" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="67" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="expression" dxfId="259" priority="66">
+    <cfRule type="expression" dxfId="95" priority="66">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="258" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="65" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="257" priority="62">
+    <cfRule type="expression" dxfId="93" priority="62">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="256" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="61" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="255" priority="60">
+    <cfRule type="expression" dxfId="91" priority="60">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="254" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="59" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="253" priority="58">
+    <cfRule type="expression" dxfId="89" priority="58">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="252" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="57" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="251" priority="56">
+    <cfRule type="expression" dxfId="87" priority="56">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="250" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="55" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="249" priority="54">
+    <cfRule type="expression" dxfId="85" priority="54">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="248" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="53" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="247" priority="52">
+    <cfRule type="expression" dxfId="83" priority="52">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="246" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="51" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="245" priority="50">
+    <cfRule type="expression" dxfId="81" priority="50">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="244" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="49" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="243" priority="48">
+    <cfRule type="expression" dxfId="79" priority="48">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="242" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="47" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="expression" dxfId="241" priority="46">
+    <cfRule type="expression" dxfId="77" priority="46">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:E13">
-    <cfRule type="cellIs" dxfId="240" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="45" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="239" priority="44">
+    <cfRule type="expression" dxfId="75" priority="44">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="cellIs" dxfId="238" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="43" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="237" priority="42">
+    <cfRule type="expression" dxfId="73" priority="42">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="236" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="41" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="235" priority="40">
+    <cfRule type="expression" dxfId="71" priority="40">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="234" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="39" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="233" priority="38">
+    <cfRule type="expression" dxfId="69" priority="38">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="232" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="37" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="231" priority="36">
+    <cfRule type="expression" dxfId="67" priority="36">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="230" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="35" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="229" priority="34">
+    <cfRule type="expression" dxfId="65" priority="34">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="228" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="33" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="227" priority="32">
+    <cfRule type="expression" dxfId="63" priority="32">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="226" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="31" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="225" priority="28">
+    <cfRule type="expression" dxfId="61" priority="28">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="224" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="27" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="expression" dxfId="223" priority="26">
+    <cfRule type="expression" dxfId="59" priority="26">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16 Q18">
-    <cfRule type="cellIs" dxfId="222" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="221" priority="24">
+    <cfRule type="expression" dxfId="57" priority="24">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="220" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="23" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="219" priority="22">
+    <cfRule type="expression" dxfId="55" priority="22">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="218" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="217" priority="20">
+    <cfRule type="expression" dxfId="53" priority="20">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="216" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="19" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="expression" dxfId="215" priority="18">
+    <cfRule type="expression" dxfId="51" priority="18">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="cellIs" dxfId="214" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="17" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="expression" dxfId="213" priority="16">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S19">
-    <cfRule type="cellIs" dxfId="212" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="15" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="211" priority="14">
+    <cfRule type="expression" dxfId="47" priority="14">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="cellIs" dxfId="210" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="13" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="expression" dxfId="209" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="208" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="207" priority="10">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="206" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="205" priority="8">
+    <cfRule type="expression" dxfId="41" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="204" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="expression" dxfId="203" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:M19">
-    <cfRule type="cellIs" dxfId="202" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="expression" dxfId="201" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19 G19:J19">
-    <cfRule type="cellIs" dxfId="200" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="199" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="198" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40868,52 +40462,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20 A19 L19:R19 D19:J19">
-    <cfRule type="expression" dxfId="197" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20 A19 L19:R19 D19:J19">
-    <cfRule type="cellIs" dxfId="196" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="expression" dxfId="195" priority="8">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:T20 S19:T19 K19 A1:T16 D17:T18 A17:B18">
-    <cfRule type="cellIs" dxfId="194" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="193" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="192" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="191" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="cellIs" dxfId="190" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="189" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="188" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
